--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464188.760458611</v>
+        <v>1470469.944597794</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9499239.702788955</v>
+        <v>9499239.70278896</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12117314.18276454</v>
+        <v>12117314.18276453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6366176.928747819</v>
+        <v>6366176.928747818</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>28.10627133110856</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>155.6965021532915</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>176.7671459506035</v>
@@ -1388,7 +1388,7 @@
         <v>176.7671459506035</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>127.5902308221829</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1931965061538</v>
       </c>
       <c r="H12" t="n">
         <v>101.1257684170265</v>
@@ -1500,10 +1500,10 @@
         <v>150.3164694256111</v>
       </c>
       <c r="T12" t="n">
-        <v>50.93721360850999</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>74.7649507290119</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.6528669368494</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>126.4486315453439</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.17679318162196</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>5.407515019888663</v>
       </c>
       <c r="R13" t="n">
-        <v>133.9309012420581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>176.7671459506035</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>176.7671459506035</v>
       </c>
       <c r="U13" t="n">
-        <v>64.61408612873645</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>159.8093119853785</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>28.10627133110856</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>28.10627133110856</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>176.7671459506035</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>77.05132229834443</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>101.1257684170265</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>49.79129443958983</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.164697123899</v>
+        <v>176.7671459506035</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>155.6965021532915</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>126.4486315453439</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.84035558805894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.407515019888663</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>176.7671459506035</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>176.7671459506035</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>28.10627133110856</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>176.7671459506035</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>176.7671459506035</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>176.7671459506035</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>127.5902308221829</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.8177915331849</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>160.0282545619244</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>176.7671459506034</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>176.7671459506034</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>157.6176020087856</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.1931965061538</v>
       </c>
       <c r="H18" t="n">
-        <v>99.64538508552451</v>
+        <v>101.1257684170265</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>49.79129443958983</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>49.4120357034124</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>176.7671459506034</v>
       </c>
     </row>
     <row r="19">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.7671459506035</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.17679318162196</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>133.9309012420581</v>
       </c>
       <c r="S19" t="n">
-        <v>176.7671459506035</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>176.7671459506034</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.92199103364568</v>
+        <v>49.91727384362439</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>176.7671459506034</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>231.84808167975</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>231.84808167975</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>76.62155952134074</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>127.5902308221829</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.2117903435237</v>
       </c>
       <c r="V20" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>231.84808167975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>59.65166003842994</v>
+        <v>136.1931965061538</v>
       </c>
       <c r="H21" t="n">
         <v>101.1257684170265</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.5281292043162</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>193.1895939609412</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.6528669368494</v>
       </c>
       <c r="I22" t="n">
-        <v>95.64997499545763</v>
+        <v>126.4486315453439</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.407515019888663</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.9309012420581</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>207.2099070565824</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>231.8480816797501</v>
+        <v>75.81685534361701</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>70.87562859323813</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>408.6152276303536</v>
       </c>
       <c r="H23" t="n">
-        <v>317.4567033503113</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>127.5902308221829</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.8177915331849</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.6844762116809</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1736575067637</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>187.9422216114484</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1931965061538</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>101.1257684170265</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>28.73704809432486</v>
       </c>
       <c r="S24" t="n">
-        <v>112.1920284159392</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>195.5281292043162</v>
       </c>
       <c r="U24" t="n">
-        <v>225.865703090379</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>232.2148066281358</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>66.84392555893875</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0265891613576</v>
       </c>
       <c r="H25" t="n">
         <v>153.6528669368494</v>
       </c>
       <c r="I25" t="n">
-        <v>126.4486315453439</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.9309012420581</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>207.2099070565824</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.8250131315766</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>54.68871547036354</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>135.1503665687428</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.4567033503113</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>127.7072340263177</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2634,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>51.20885654609269</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.1931965061538</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>101.1257684170265</v>
       </c>
       <c r="I27" t="n">
-        <v>49.79129443958983</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>150.3164694256111</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>153.243509770584</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.865703090379</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48.70758901927513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0265891613576</v>
+        <v>13.72337067667275</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.6528669368494</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>5.407515019888663</v>
       </c>
       <c r="R28" t="n">
         <v>133.9309012420581</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>207.2099070565824</v>
       </c>
       <c r="T28" t="n">
-        <v>223.8250131315766</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.4551002378226</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>392.0582542085265</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3350034685405</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>145.2104630287395</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>198.866684678496</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.3491030666237</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>312.93446693695</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>334.4231771842281</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>354.9133091452841</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>153.9041346120146</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>151.7153921166824</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6272740314539</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>142.827288922216</v>
       </c>
       <c r="F30" t="n">
-        <v>116.4673638384126</v>
+        <v>130.251420860199</v>
       </c>
       <c r="G30" t="n">
         <v>121.3754049729689</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.97350290640492</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>135.4986778924262</v>
       </c>
       <c r="T30" t="n">
-        <v>180.7103376711313</v>
+        <v>47.22269815192189</v>
       </c>
       <c r="U30" t="n">
         <v>211.0479115571941</v>
@@ -2934,10 +2934,10 @@
         <v>236.8771916277347</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>190.9551936702926</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.8649042441195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.0141886487524</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>152.4290295654429</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.7976814850275</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>130.6032564897463</v>
       </c>
       <c r="G31" t="n">
         <v>152.2087976281727</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8350754036645</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>209.0072215983917</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>166.7327332632545</v>
       </c>
       <c r="W31" t="n">
-        <v>183.8625992185603</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>392.0582542085265</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3350034685405</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>302.6389118171264</v>
       </c>
       <c r="I32" t="n">
         <v>112.772439288998</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>198.866684678496</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>312.93446693695</v>
+        <v>40.08411651718642</v>
       </c>
       <c r="W32" t="n">
-        <v>249.8949872730655</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.4201471228687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3108,22 @@
         <v>151.7153921166824</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>157.8907074551308</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>132.6272740314539</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.827288922216</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>130.251420860199</v>
       </c>
       <c r="G33" t="n">
-        <v>121.3754049729689</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>86.3079768838416</v>
       </c>
       <c r="I33" t="n">
         <v>34.97350290640492</v>
@@ -3162,16 +3162,16 @@
         <v>180.7103376711313</v>
       </c>
       <c r="U33" t="n">
-        <v>211.0479115571941</v>
+        <v>51.13129873397778</v>
       </c>
       <c r="V33" t="n">
-        <v>217.9827956162404</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>236.8771916277347</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>104.7078567829739</v>
+        <v>190.9551936702926</v>
       </c>
       <c r="Y33" t="n">
         <v>190.8649042441195</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.7976814850275</v>
       </c>
       <c r="E34" t="n">
-        <v>131.6161711133843</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>152.2087976281727</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8350754036645</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>98.24101159772545</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>271.4486347216459</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>271.7052068034061</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>115.3981674545133</v>
       </c>
       <c r="Y34" t="n">
         <v>203.7668618189099</v>
@@ -3263,67 +3263,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="C35" t="n">
+        <v>231.8480816797501</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>204.2117903435237</v>
       </c>
-      <c r="D35" t="n">
+      <c r="V35" t="n">
         <v>231.8480816797501</v>
-      </c>
-      <c r="E35" t="n">
-        <v>231.8480816797501</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>231.8480816797501</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>151.7153921166824</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>157.8907074551308</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6272740314539</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>125.0993452493439</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>121.3754049729689</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>80.98653907445865</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>211.0479115571941</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>217.9827956162404</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>165.0141886487524</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.6032564897463</v>
       </c>
       <c r="G37" t="n">
-        <v>152.2087976281727</v>
+        <v>21.3293171759018</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8350754036645</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>111.630840012159</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>10.35900164843706</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>62.48212348719319</v>
+        <v>119.1131097088732</v>
       </c>
       <c r="S37" t="n">
-        <v>192.3921155233975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,73 +3503,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>204.2117903435237</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>231.8480816797501</v>
       </c>
-      <c r="D38" t="n">
-        <v>204.2117903435237</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="V38" t="n">
         <v>231.8480816797501</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>151.7153921166824</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>132.6272740314539</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>121.3754049729689</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.16185441290699</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>211.0479115571941</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>217.9827956162404</v>
       </c>
       <c r="W39" t="n">
-        <v>231.8480816797501</v>
+        <v>45.9504628476989</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>190.9551936702926</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>190.8649042441195</v>
       </c>
     </row>
     <row r="40">
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>23.28578860597221</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>34.66053490148461</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>192.3921155233975</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>209.0072215983917</v>
@@ -3718,16 +3718,16 @@
         <v>231.8480816797501</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="W40" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>203.7668618189099</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="D41" t="n">
+        <v>204.2117903435237</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>231.8480816797501</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>231.8480816797501</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.345105665027747</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>198.866684678496</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>231.8480816797501</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,46 +3828,46 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>78.25962674535972</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>180.7103376711313</v>
@@ -3898,25 +3898,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>117.2875263554149</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>131.6161711133843</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>130.6032564897463</v>
       </c>
       <c r="G43" t="n">
-        <v>152.2087976281727</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8350754036645</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>111.630840012159</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.63164679197046</v>
+        <v>192.3921155233975</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>209.0072215983917</v>
       </c>
       <c r="U43" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>231.8480816797501</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,76 +3974,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>176.7671459506035</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>176.7671459506035</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>176.7671459506035</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>155.6965021532915</v>
-      </c>
-      <c r="C44" t="n">
-        <v>176.7671459506035</v>
-      </c>
-      <c r="D44" t="n">
-        <v>176.7671459506035</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>176.7671459506035</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>126.9594540589666</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>19.50330564713769</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.1931965061538</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28.73704809432486</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>176.7671459506035</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>176.7671459506035</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>176.7671459506035</v>
@@ -4138,25 +4138,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>48.16768385199723</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0265891613576</v>
       </c>
       <c r="H46" t="n">
-        <v>41.4998071149823</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>126.4486315453439</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.17679318162196</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.407515019888663</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.9309012420581</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>176.7671459506035</v>
-      </c>
-      <c r="T46" t="n">
-        <v>176.7671459506035</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>707.068583802414</v>
+        <v>678.678410740688</v>
       </c>
       <c r="C11" t="n">
-        <v>707.068583802414</v>
+        <v>678.678410740688</v>
       </c>
       <c r="D11" t="n">
-        <v>707.068583802414</v>
+        <v>678.678410740688</v>
       </c>
       <c r="E11" t="n">
-        <v>549.7993897081801</v>
+        <v>678.678410740688</v>
       </c>
       <c r="F11" t="n">
-        <v>371.2467170308029</v>
+        <v>500.1257380633108</v>
       </c>
       <c r="G11" t="n">
-        <v>192.6940443534256</v>
+        <v>321.5730653859335</v>
       </c>
       <c r="H11" t="n">
-        <v>14.14137167604828</v>
+        <v>143.0203927085563</v>
       </c>
       <c r="I11" t="n">
         <v>14.14137167604828</v>
@@ -5042,49 +5042,49 @@
         <v>15.55487275815056</v>
       </c>
       <c r="K11" t="n">
-        <v>68.41186271384288</v>
+        <v>88.49647954675287</v>
       </c>
       <c r="L11" t="n">
-        <v>170.8873945465896</v>
+        <v>190.9720113794996</v>
       </c>
       <c r="M11" t="n">
-        <v>316.5806060757428</v>
+        <v>336.6652229086528</v>
       </c>
       <c r="N11" t="n">
-        <v>469.2450944638338</v>
+        <v>489.3297112967438</v>
       </c>
       <c r="O11" t="n">
-        <v>600.0665805460405</v>
+        <v>620.1511973789505</v>
       </c>
       <c r="P11" t="n">
-        <v>677.2186913961992</v>
+        <v>697.3033082291092</v>
       </c>
       <c r="Q11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="R11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="S11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="T11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="U11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="V11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="W11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="X11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="Y11" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="C12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="D12" t="n">
-        <v>325.8203043144496</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="E12" t="n">
-        <v>166.5828493089941</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="F12" t="n">
-        <v>166.5828493089941</v>
+        <v>304.1517346687454</v>
       </c>
       <c r="G12" t="n">
         <v>166.5828493089941</v>
@@ -5121,49 +5121,49 @@
         <v>14.14137167604828</v>
       </c>
       <c r="K12" t="n">
-        <v>61.57239127806838</v>
+        <v>61.57239127806835</v>
       </c>
       <c r="L12" t="n">
         <v>171.6717916395133</v>
       </c>
       <c r="M12" t="n">
-        <v>319.5094669803627</v>
+        <v>319.5094669803626</v>
       </c>
       <c r="N12" t="n">
-        <v>485.6686105984993</v>
+        <v>485.6686105984992</v>
       </c>
       <c r="O12" t="n">
-        <v>615.4519699867824</v>
+        <v>615.4519699867823</v>
       </c>
       <c r="P12" t="n">
-        <v>700.2814915556792</v>
+        <v>700.2814915556791</v>
       </c>
       <c r="Q12" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="R12" t="n">
-        <v>678.0412624950151</v>
+        <v>678.041262495015</v>
       </c>
       <c r="S12" t="n">
-        <v>526.2064448933877</v>
+        <v>526.2064448933876</v>
       </c>
       <c r="T12" t="n">
-        <v>474.7547139757008</v>
+        <v>526.2064448933876</v>
       </c>
       <c r="U12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="V12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="W12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="X12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="Y12" t="n">
-        <v>474.7547139757008</v>
+        <v>450.6862926418604</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>322.5032824475789</v>
+        <v>183.0775546039552</v>
       </c>
       <c r="C13" t="n">
-        <v>322.5032824475789</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="D13" t="n">
-        <v>322.5032824475789</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="E13" t="n">
-        <v>322.5032824475789</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="F13" t="n">
-        <v>322.5032824475789</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="G13" t="n">
-        <v>322.5032824475789</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="H13" t="n">
-        <v>167.2983663497512</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="I13" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="J13" t="n">
         <v>14.14137167604828</v>
@@ -5209,40 +5209,40 @@
         <v>447.277070288337</v>
       </c>
       <c r="N13" t="n">
-        <v>547.7802581067575</v>
+        <v>547.7802581067574</v>
       </c>
       <c r="O13" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="P13" t="n">
-        <v>707.068583802414</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="Q13" t="n">
-        <v>701.606447418688</v>
+        <v>701.6064474186879</v>
       </c>
       <c r="R13" t="n">
-        <v>566.3227087903465</v>
+        <v>701.6064474186879</v>
       </c>
       <c r="S13" t="n">
-        <v>387.7700361129693</v>
+        <v>523.0537747413107</v>
       </c>
       <c r="T13" t="n">
-        <v>387.7700361129693</v>
+        <v>344.5011020639334</v>
       </c>
       <c r="U13" t="n">
-        <v>322.5032824475789</v>
+        <v>344.5011020639334</v>
       </c>
       <c r="V13" t="n">
-        <v>322.5032824475789</v>
+        <v>183.0775546039552</v>
       </c>
       <c r="W13" t="n">
-        <v>322.5032824475789</v>
+        <v>183.0775546039552</v>
       </c>
       <c r="X13" t="n">
-        <v>322.5032824475789</v>
+        <v>183.0775546039552</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.5032824475789</v>
+        <v>183.0775546039552</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>707.0685838024139</v>
+        <v>678.678410740688</v>
       </c>
       <c r="C14" t="n">
-        <v>707.0685838024139</v>
+        <v>678.678410740688</v>
       </c>
       <c r="D14" t="n">
-        <v>707.0685838024139</v>
+        <v>678.678410740688</v>
       </c>
       <c r="E14" t="n">
         <v>678.678410740688</v>
@@ -5276,13 +5276,13 @@
         <v>14.14137167604828</v>
       </c>
       <c r="J14" t="n">
-        <v>15.55487275815056</v>
+        <v>35.63948959106055</v>
       </c>
       <c r="K14" t="n">
-        <v>68.41186271384288</v>
+        <v>88.49647954675287</v>
       </c>
       <c r="L14" t="n">
-        <v>170.8873945465896</v>
+        <v>190.9720113794996</v>
       </c>
       <c r="M14" t="n">
         <v>336.6652229086528</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>549.3264654954452</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="C15" t="n">
-        <v>549.3264654954452</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="D15" t="n">
-        <v>400.3920558341939</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="E15" t="n">
-        <v>400.3920558341939</v>
+        <v>450.6862926418604</v>
       </c>
       <c r="F15" t="n">
-        <v>253.8574978610789</v>
+        <v>304.1517346687454</v>
       </c>
       <c r="G15" t="n">
-        <v>116.2886125013276</v>
+        <v>166.5828493089941</v>
       </c>
       <c r="H15" t="n">
-        <v>14.14137167604828</v>
+        <v>64.43560848371477</v>
       </c>
       <c r="I15" t="n">
         <v>14.14137167604828</v>
@@ -5358,7 +5358,7 @@
         <v>14.14137167604828</v>
       </c>
       <c r="K15" t="n">
-        <v>61.57239127806835</v>
+        <v>61.57239127806837</v>
       </c>
       <c r="L15" t="n">
         <v>171.6717916395133</v>
@@ -5367,10 +5367,10 @@
         <v>319.5094669803627</v>
       </c>
       <c r="N15" t="n">
-        <v>485.6686105984994</v>
+        <v>485.6686105984993</v>
       </c>
       <c r="O15" t="n">
-        <v>615.4519699867824</v>
+        <v>615.4519699867823</v>
       </c>
       <c r="P15" t="n">
         <v>700.2814915556791</v>
@@ -5400,7 +5400,7 @@
         <v>707.0685838024139</v>
       </c>
       <c r="Y15" t="n">
-        <v>549.3264654954452</v>
+        <v>528.5159111250366</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="C16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="D16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="E16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="F16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="G16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="H16" t="n">
-        <v>165.9484293865562</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="I16" t="n">
-        <v>38.22253893671387</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="J16" t="n">
         <v>14.14137167604828</v>
       </c>
       <c r="K16" t="n">
-        <v>14.14137167604828</v>
+        <v>71.05039207542001</v>
       </c>
       <c r="L16" t="n">
-        <v>183.4002322342901</v>
+        <v>240.3092526336619</v>
       </c>
       <c r="M16" t="n">
-        <v>358.3997067253875</v>
+        <v>415.3087271247593</v>
       </c>
       <c r="N16" t="n">
-        <v>533.399181216485</v>
+        <v>435.0022597944104</v>
       </c>
       <c r="O16" t="n">
-        <v>692.6875069121414</v>
+        <v>594.2905854900669</v>
       </c>
       <c r="P16" t="n">
         <v>707.0685838024139</v>
       </c>
       <c r="Q16" t="n">
-        <v>701.6064474186879</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="R16" t="n">
-        <v>701.6064474186879</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="S16" t="n">
-        <v>523.0537747413107</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="T16" t="n">
-        <v>344.5011020639334</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="U16" t="n">
-        <v>165.9484293865562</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="V16" t="n">
-        <v>165.9484293865562</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="W16" t="n">
-        <v>165.9484293865562</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="X16" t="n">
-        <v>165.9484293865562</v>
+        <v>171.4105657702821</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.9484293865562</v>
+        <v>171.4105657702821</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="C17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="D17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="E17" t="n">
-        <v>678.678410740688</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="F17" t="n">
-        <v>500.1257380633108</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="G17" t="n">
-        <v>321.5730653859335</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="H17" t="n">
-        <v>143.0203927085563</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="I17" t="n">
-        <v>14.14137167604828</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="J17" t="n">
-        <v>35.63948959106055</v>
+        <v>35.63948959106032</v>
       </c>
       <c r="K17" t="n">
-        <v>88.49647954675287</v>
+        <v>88.49647954675264</v>
       </c>
       <c r="L17" t="n">
-        <v>190.9720113794996</v>
+        <v>190.9720113794993</v>
       </c>
       <c r="M17" t="n">
-        <v>336.6652229086528</v>
+        <v>336.6652229086526</v>
       </c>
       <c r="N17" t="n">
-        <v>489.3297112967438</v>
+        <v>489.3297112967436</v>
       </c>
       <c r="O17" t="n">
-        <v>620.1511973789505</v>
+        <v>620.1511973789503</v>
       </c>
       <c r="P17" t="n">
-        <v>697.3033082291092</v>
+        <v>697.303308229109</v>
       </c>
       <c r="Q17" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="R17" t="n">
-        <v>707.0685838024139</v>
+        <v>692.1011176072774</v>
       </c>
       <c r="S17" t="n">
-        <v>707.0685838024139</v>
+        <v>530.456416029576</v>
       </c>
       <c r="T17" t="n">
-        <v>707.0685838024139</v>
+        <v>351.9037433521988</v>
       </c>
       <c r="U17" t="n">
-        <v>707.0685838024139</v>
+        <v>173.3510706748216</v>
       </c>
       <c r="V17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="W17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="X17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="Y17" t="n">
-        <v>707.0685838024139</v>
+        <v>14.14137167604827</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>707.0685838024139</v>
+        <v>478.6047639498724</v>
       </c>
       <c r="C18" t="n">
-        <v>707.0685838024139</v>
+        <v>304.1517346687454</v>
       </c>
       <c r="D18" t="n">
-        <v>558.1341741411626</v>
+        <v>304.1517346687454</v>
       </c>
       <c r="E18" t="n">
-        <v>398.8967191357071</v>
+        <v>304.1517346687454</v>
       </c>
       <c r="F18" t="n">
-        <v>252.3621611625921</v>
+        <v>304.1517346687454</v>
       </c>
       <c r="G18" t="n">
-        <v>114.7932758028407</v>
+        <v>166.5828493089941</v>
       </c>
       <c r="H18" t="n">
-        <v>14.14137167604828</v>
+        <v>64.43560848371476</v>
       </c>
       <c r="I18" t="n">
-        <v>14.14137167604828</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="J18" t="n">
-        <v>14.14137167604828</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="K18" t="n">
-        <v>61.57239127806831</v>
+        <v>61.57239127806808</v>
       </c>
       <c r="L18" t="n">
-        <v>171.6717916395133</v>
+        <v>171.671791639513</v>
       </c>
       <c r="M18" t="n">
-        <v>319.5094669803626</v>
+        <v>319.5094669803624</v>
       </c>
       <c r="N18" t="n">
-        <v>485.6686105984993</v>
+        <v>485.6686105984991</v>
       </c>
       <c r="O18" t="n">
-        <v>615.4519699867823</v>
+        <v>615.451969986782</v>
       </c>
       <c r="P18" t="n">
-        <v>700.2814915556791</v>
+        <v>700.2814915556788</v>
       </c>
       <c r="Q18" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="R18" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="S18" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="T18" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="U18" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="V18" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="W18" t="n">
-        <v>707.0685838024139</v>
+        <v>657.1574366272496</v>
       </c>
       <c r="X18" t="n">
-        <v>707.0685838024139</v>
+        <v>657.1574366272496</v>
       </c>
       <c r="Y18" t="n">
-        <v>707.0685838024139</v>
+        <v>478.6047639498724</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>187.485569482302</v>
+        <v>164.258011088384</v>
       </c>
       <c r="C19" t="n">
-        <v>187.485569482302</v>
+        <v>164.258011088384</v>
       </c>
       <c r="D19" t="n">
-        <v>187.485569482302</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="E19" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="F19" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="G19" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="H19" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="I19" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="J19" t="n">
-        <v>14.14137167604828</v>
+        <v>14.14137167604827</v>
       </c>
       <c r="K19" t="n">
-        <v>14.14137167604828</v>
+        <v>103.0187352389977</v>
       </c>
       <c r="L19" t="n">
-        <v>183.4002322342901</v>
+        <v>272.2775957972395</v>
       </c>
       <c r="M19" t="n">
-        <v>358.3997067253875</v>
+        <v>415.3087271247591</v>
       </c>
       <c r="N19" t="n">
-        <v>435.0022597944104</v>
+        <v>435.0022597944102</v>
       </c>
       <c r="O19" t="n">
-        <v>594.2905854900669</v>
+        <v>594.2905854900666</v>
       </c>
       <c r="P19" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="Q19" t="n">
-        <v>707.0685838024139</v>
+        <v>707.0685838024136</v>
       </c>
       <c r="R19" t="n">
-        <v>571.7848451740723</v>
+        <v>571.7848451740721</v>
       </c>
       <c r="S19" t="n">
-        <v>393.2321724966951</v>
+        <v>571.7848451740721</v>
       </c>
       <c r="T19" t="n">
-        <v>393.2321724966951</v>
+        <v>393.2321724966949</v>
       </c>
       <c r="U19" t="n">
-        <v>393.2321724966951</v>
+        <v>393.2321724966949</v>
       </c>
       <c r="V19" t="n">
-        <v>393.2321724966951</v>
+        <v>393.2321724966949</v>
       </c>
       <c r="W19" t="n">
-        <v>393.2321724966951</v>
+        <v>393.2321724966949</v>
       </c>
       <c r="X19" t="n">
-        <v>366.0382421596792</v>
+        <v>342.8106837657612</v>
       </c>
       <c r="Y19" t="n">
-        <v>366.0382421596792</v>
+        <v>164.258011088384</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>693.2023452243031</v>
+        <v>252.737828029077</v>
       </c>
       <c r="C20" t="n">
-        <v>693.2023452243031</v>
+        <v>252.737828029077</v>
       </c>
       <c r="D20" t="n">
-        <v>693.2023452243031</v>
+        <v>18.54784653438</v>
       </c>
       <c r="E20" t="n">
-        <v>693.2023452243031</v>
+        <v>18.54784653438</v>
       </c>
       <c r="F20" t="n">
-        <v>615.8068305562822</v>
+        <v>18.54784653438</v>
       </c>
       <c r="G20" t="n">
-        <v>381.6168490615851</v>
+        <v>18.54784653438</v>
       </c>
       <c r="H20" t="n">
-        <v>147.426867566888</v>
+        <v>18.54784653438</v>
       </c>
       <c r="I20" t="n">
-        <v>18.54784653438001</v>
+        <v>18.54784653438</v>
       </c>
       <c r="J20" t="n">
-        <v>19.96134761648229</v>
+        <v>95.2617306989859</v>
       </c>
       <c r="K20" t="n">
-        <v>249.4909484794349</v>
+        <v>148.1187206546782</v>
       </c>
       <c r="L20" t="n">
-        <v>351.9664803121816</v>
+        <v>250.5942524874249</v>
       </c>
       <c r="M20" t="n">
-        <v>497.6596918413348</v>
+        <v>480.1238533503774</v>
       </c>
       <c r="N20" t="n">
-        <v>650.3241802294258</v>
+        <v>709.65345421333</v>
       </c>
       <c r="O20" t="n">
-        <v>781.1456663116326</v>
+        <v>840.4749402955367</v>
       </c>
       <c r="P20" t="n">
-        <v>917.6270511456956</v>
+        <v>917.6270511456954</v>
       </c>
       <c r="Q20" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="R20" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="S20" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="T20" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="U20" t="n">
-        <v>927.3923267190003</v>
+        <v>721.1177910184711</v>
       </c>
       <c r="V20" t="n">
-        <v>693.2023452243031</v>
+        <v>721.1177910184711</v>
       </c>
       <c r="W20" t="n">
-        <v>693.2023452243031</v>
+        <v>486.927809523774</v>
       </c>
       <c r="X20" t="n">
-        <v>693.2023452243031</v>
+        <v>486.927809523774</v>
       </c>
       <c r="Y20" t="n">
-        <v>693.2023452243031</v>
+        <v>486.927809523774</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327.4838473917945</v>
+        <v>564.0359856979812</v>
       </c>
       <c r="C21" t="n">
-        <v>327.4838473917945</v>
+        <v>564.0359856979812</v>
       </c>
       <c r="D21" t="n">
-        <v>327.4838473917945</v>
+        <v>564.0359856979812</v>
       </c>
       <c r="E21" t="n">
-        <v>327.4838473917945</v>
+        <v>404.7985306925257</v>
       </c>
       <c r="F21" t="n">
-        <v>180.9492894186795</v>
+        <v>258.2639727194106</v>
       </c>
       <c r="G21" t="n">
         <v>120.6950873596593</v>
       </c>
       <c r="H21" t="n">
-        <v>18.54784653438001</v>
+        <v>18.54784653438</v>
       </c>
       <c r="I21" t="n">
-        <v>18.54784653438001</v>
+        <v>18.54784653438</v>
       </c>
       <c r="J21" t="n">
-        <v>18.54784653438001</v>
+        <v>18.54784653438</v>
       </c>
       <c r="K21" t="n">
         <v>65.97886613640009</v>
       </c>
       <c r="L21" t="n">
-        <v>176.078266497845</v>
+        <v>247.2954552620437</v>
       </c>
       <c r="M21" t="n">
-        <v>323.9159418386944</v>
+        <v>395.1331306028931</v>
       </c>
       <c r="N21" t="n">
-        <v>490.0750854568311</v>
+        <v>561.2922742210297</v>
       </c>
       <c r="O21" t="n">
-        <v>691.0756336093129</v>
+        <v>691.0756336093127</v>
       </c>
       <c r="P21" t="n">
-        <v>920.6052344722655</v>
+        <v>920.6052344722652</v>
       </c>
       <c r="Q21" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="R21" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="S21" t="n">
-        <v>927.3923267190003</v>
+        <v>927.392326719</v>
       </c>
       <c r="T21" t="n">
-        <v>729.8891659065596</v>
+        <v>927.392326719</v>
       </c>
       <c r="U21" t="n">
-        <v>729.8891659065596</v>
+        <v>927.392326719</v>
       </c>
       <c r="V21" t="n">
-        <v>495.6991844118625</v>
+        <v>927.392326719</v>
       </c>
       <c r="W21" t="n">
-        <v>495.6991844118625</v>
+        <v>927.392326719</v>
       </c>
       <c r="X21" t="n">
-        <v>495.6991844118625</v>
+        <v>732.2513227180493</v>
       </c>
       <c r="Y21" t="n">
-        <v>495.6991844118625</v>
+        <v>732.2513227180493</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.1639828934281</v>
+        <v>448.3686005799605</v>
       </c>
       <c r="C22" t="n">
-        <v>115.1639828934281</v>
+        <v>448.3686005799605</v>
       </c>
       <c r="D22" t="n">
-        <v>115.1639828934281</v>
+        <v>448.3686005799605</v>
       </c>
       <c r="E22" t="n">
-        <v>115.1639828934281</v>
+        <v>448.3686005799605</v>
       </c>
       <c r="F22" t="n">
-        <v>115.1639828934281</v>
+        <v>301.4786530820501</v>
       </c>
       <c r="G22" t="n">
-        <v>115.1639828934281</v>
+        <v>301.4786530820501</v>
       </c>
       <c r="H22" t="n">
-        <v>115.1639828934281</v>
+        <v>146.2737369842223</v>
       </c>
       <c r="I22" t="n">
-        <v>18.54784653438001</v>
+        <v>18.54784653438</v>
       </c>
       <c r="J22" t="n">
-        <v>18.54784653438001</v>
+        <v>18.54784653438</v>
       </c>
       <c r="K22" t="n">
         <v>107.4252100973294</v>
@@ -5929,31 +5929,31 @@
         <v>927.3923267190003</v>
       </c>
       <c r="Q22" t="n">
-        <v>921.9301903352743</v>
+        <v>927.392326719</v>
       </c>
       <c r="R22" t="n">
-        <v>786.6464517069328</v>
+        <v>927.392326719</v>
       </c>
       <c r="S22" t="n">
-        <v>577.3435152861425</v>
+        <v>927.392326719</v>
       </c>
       <c r="T22" t="n">
-        <v>577.3435152861425</v>
+        <v>927.392326719</v>
       </c>
       <c r="U22" t="n">
-        <v>577.3435152861425</v>
+        <v>927.392326719</v>
       </c>
       <c r="V22" t="n">
-        <v>577.3435152861425</v>
+        <v>927.392326719</v>
       </c>
       <c r="W22" t="n">
-        <v>343.1535337914455</v>
+        <v>850.8096445537303</v>
       </c>
       <c r="X22" t="n">
-        <v>115.1639828934281</v>
+        <v>850.8096445537303</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.1639828934281</v>
+        <v>630.0170654102002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1634.460910521414</v>
+        <v>960.0991460132548</v>
       </c>
       <c r="C23" t="n">
-        <v>1634.460910521414</v>
+        <v>960.0991460132548</v>
       </c>
       <c r="D23" t="n">
-        <v>1562.869366487841</v>
+        <v>960.0991460132548</v>
       </c>
       <c r="E23" t="n">
-        <v>1177.081113889596</v>
+        <v>574.3108934150106</v>
       </c>
       <c r="F23" t="n">
-        <v>766.0952090999888</v>
+        <v>574.3108934150106</v>
       </c>
       <c r="G23" t="n">
-        <v>353.3525549279145</v>
+        <v>161.5682392429363</v>
       </c>
       <c r="H23" t="n">
-        <v>32.68921821042829</v>
+        <v>161.5682392429363</v>
       </c>
       <c r="I23" t="n">
         <v>32.68921821042829</v>
       </c>
       <c r="J23" t="n">
-        <v>34.10271929253057</v>
+        <v>201.5083683128836</v>
       </c>
       <c r="K23" t="n">
-        <v>86.95970924822288</v>
+        <v>254.3653582685759</v>
       </c>
       <c r="L23" t="n">
-        <v>491.488784602273</v>
+        <v>356.8408901013227</v>
       </c>
       <c r="M23" t="n">
-        <v>738.4853733898512</v>
+        <v>761.3699654553727</v>
       </c>
       <c r="N23" t="n">
-        <v>1143.014448743901</v>
+        <v>1165.899040809423</v>
       </c>
       <c r="O23" t="n">
         <v>1547.543524097951</v>
@@ -6011,28 +6011,28 @@
         <v>1634.460910521414</v>
       </c>
       <c r="R23" t="n">
-        <v>1634.460910521414</v>
+        <v>1619.493444326278</v>
       </c>
       <c r="S23" t="n">
-        <v>1634.460910521414</v>
+        <v>1619.493444326278</v>
       </c>
       <c r="T23" t="n">
-        <v>1634.460910521414</v>
+        <v>1403.650539061954</v>
       </c>
       <c r="U23" t="n">
-        <v>1634.460910521414</v>
+        <v>1149.939773903607</v>
       </c>
       <c r="V23" t="n">
-        <v>1634.460910521414</v>
+        <v>960.0991460132548</v>
       </c>
       <c r="W23" t="n">
-        <v>1634.460910521414</v>
+        <v>960.0991460132548</v>
       </c>
       <c r="X23" t="n">
-        <v>1634.460910521414</v>
+        <v>960.0991460132548</v>
       </c>
       <c r="Y23" t="n">
-        <v>1634.460910521414</v>
+        <v>960.0991460132548</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>606.0958286820414</v>
+        <v>589.5428816755293</v>
       </c>
       <c r="C24" t="n">
-        <v>431.6427994009144</v>
+        <v>589.5428816755293</v>
       </c>
       <c r="D24" t="n">
-        <v>431.6427994009144</v>
+        <v>440.6084720142781</v>
       </c>
       <c r="E24" t="n">
-        <v>272.4053443954589</v>
+        <v>281.3710170088226</v>
       </c>
       <c r="F24" t="n">
-        <v>272.4053443954589</v>
+        <v>134.8364590357076</v>
       </c>
       <c r="G24" t="n">
         <v>134.8364590357076</v>
@@ -6066,52 +6066,52 @@
         <v>32.68921821042829</v>
       </c>
       <c r="J24" t="n">
-        <v>139.5433678014886</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="K24" t="n">
-        <v>186.9743874035087</v>
+        <v>80.12023781244838</v>
       </c>
       <c r="L24" t="n">
-        <v>359.6504875210554</v>
+        <v>484.6493131664984</v>
       </c>
       <c r="M24" t="n">
-        <v>764.1795628751055</v>
+        <v>656.8779367800581</v>
       </c>
       <c r="N24" t="n">
-        <v>930.3387064932422</v>
+        <v>823.0370803981948</v>
       </c>
       <c r="O24" t="n">
-        <v>1334.867781847292</v>
+        <v>1227.566155752245</v>
       </c>
       <c r="P24" t="n">
-        <v>1419.697303416189</v>
+        <v>1627.673818274679</v>
       </c>
       <c r="Q24" t="n">
         <v>1634.460910521414</v>
       </c>
       <c r="R24" t="n">
-        <v>1634.460910521414</v>
+        <v>1605.433589214015</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.135629293193</v>
+        <v>1605.433589214015</v>
       </c>
       <c r="T24" t="n">
-        <v>1323.632468480752</v>
+        <v>1407.930428401575</v>
       </c>
       <c r="U24" t="n">
-        <v>1095.485293641986</v>
+        <v>1407.930428401575</v>
       </c>
       <c r="V24" t="n">
-        <v>860.333185410243</v>
+        <v>1407.930428401575</v>
       </c>
       <c r="W24" t="n">
-        <v>606.0958286820414</v>
+        <v>1173.370017666084</v>
       </c>
       <c r="X24" t="n">
-        <v>606.0958286820414</v>
+        <v>965.5185174605513</v>
       </c>
       <c r="Y24" t="n">
-        <v>606.0958286820414</v>
+        <v>757.7582186955974</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>315.6200247580983</v>
+        <v>356.6078607338698</v>
       </c>
       <c r="C25" t="n">
-        <v>315.6200247580983</v>
+        <v>356.6078607338698</v>
       </c>
       <c r="D25" t="n">
-        <v>315.6200247580983</v>
+        <v>356.6078607338698</v>
       </c>
       <c r="E25" t="n">
-        <v>315.6200247580983</v>
+        <v>356.6078607338698</v>
       </c>
       <c r="F25" t="n">
-        <v>315.6200247580983</v>
+        <v>356.6078607338698</v>
       </c>
       <c r="G25" t="n">
-        <v>315.6200247580983</v>
+        <v>187.894134308256</v>
       </c>
       <c r="H25" t="n">
-        <v>160.4151086602706</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="I25" t="n">
         <v>32.68921821042829</v>
@@ -6169,28 +6169,28 @@
         <v>941.5336983950485</v>
       </c>
       <c r="R25" t="n">
-        <v>806.249959766707</v>
+        <v>941.5336983950485</v>
       </c>
       <c r="S25" t="n">
-        <v>596.9470233459167</v>
+        <v>941.5336983950485</v>
       </c>
       <c r="T25" t="n">
-        <v>370.8611514958393</v>
+        <v>941.5336983950485</v>
       </c>
       <c r="U25" t="n">
-        <v>315.6200247580983</v>
+        <v>941.5336983950485</v>
       </c>
       <c r="V25" t="n">
-        <v>315.6200247580983</v>
+        <v>941.5336983950485</v>
       </c>
       <c r="W25" t="n">
-        <v>315.6200247580983</v>
+        <v>652.1165283580879</v>
       </c>
       <c r="X25" t="n">
-        <v>315.6200247580983</v>
+        <v>424.1269774600705</v>
       </c>
       <c r="Y25" t="n">
-        <v>315.6200247580983</v>
+        <v>424.1269774600705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>913.258691202032</v>
+        <v>766.0952090999888</v>
       </c>
       <c r="C26" t="n">
-        <v>776.743169415423</v>
+        <v>766.0952090999888</v>
       </c>
       <c r="D26" t="n">
-        <v>418.4774708086725</v>
+        <v>766.0952090999888</v>
       </c>
       <c r="E26" t="n">
-        <v>32.68921821042829</v>
+        <v>766.0952090999888</v>
       </c>
       <c r="F26" t="n">
-        <v>32.68921821042829</v>
+        <v>766.0952090999888</v>
       </c>
       <c r="G26" t="n">
-        <v>32.68921821042829</v>
+        <v>353.3525549279145</v>
       </c>
       <c r="H26" t="n">
         <v>32.68921821042829</v>
@@ -6227,16 +6227,16 @@
         <v>34.10271929253057</v>
       </c>
       <c r="K26" t="n">
-        <v>407.863667693676</v>
+        <v>86.95970924822288</v>
       </c>
       <c r="L26" t="n">
-        <v>589.5917762554268</v>
+        <v>330.7559124305298</v>
       </c>
       <c r="M26" t="n">
-        <v>735.28498778458</v>
+        <v>735.2849877845798</v>
       </c>
       <c r="N26" t="n">
-        <v>887.949476172671</v>
+        <v>887.9494761726708</v>
       </c>
       <c r="O26" t="n">
         <v>1018.770962254878</v>
@@ -6260,16 +6260,16 @@
         <v>1634.460910521414</v>
       </c>
       <c r="V26" t="n">
-        <v>1303.398023177844</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="W26" t="n">
-        <v>1303.398023177844</v>
+        <v>1281.6922552513</v>
       </c>
       <c r="X26" t="n">
-        <v>1303.398023177844</v>
+        <v>1281.6922552513</v>
       </c>
       <c r="Y26" t="n">
-        <v>913.258691202032</v>
+        <v>1152.695049164111</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>951.8590331240742</v>
+        <v>333.0971347321486</v>
       </c>
       <c r="C27" t="n">
-        <v>777.4060038429473</v>
+        <v>333.0971347321486</v>
       </c>
       <c r="D27" t="n">
-        <v>628.471594181696</v>
+        <v>281.3710170088226</v>
       </c>
       <c r="E27" t="n">
-        <v>469.2341391762404</v>
+        <v>281.3710170088226</v>
       </c>
       <c r="F27" t="n">
-        <v>322.6995812031254</v>
+        <v>134.8364590357076</v>
       </c>
       <c r="G27" t="n">
-        <v>185.1306958433741</v>
+        <v>134.8364590357076</v>
       </c>
       <c r="H27" t="n">
-        <v>82.98345501809479</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="I27" t="n">
         <v>32.68921821042829</v>
@@ -6306,22 +6306,22 @@
         <v>32.68921821042829</v>
       </c>
       <c r="K27" t="n">
-        <v>227.3401304491271</v>
+        <v>341.9408224549012</v>
       </c>
       <c r="L27" t="n">
-        <v>337.439530810572</v>
+        <v>746.4698978089511</v>
       </c>
       <c r="M27" t="n">
-        <v>485.2772061514214</v>
+        <v>894.3075731498005</v>
       </c>
       <c r="N27" t="n">
-        <v>889.8062815054715</v>
+        <v>1060.466716767937</v>
       </c>
       <c r="O27" t="n">
-        <v>1019.589640893754</v>
+        <v>1227.566155752245</v>
       </c>
       <c r="P27" t="n">
-        <v>1419.697303416189</v>
+        <v>1627.673818274679</v>
       </c>
       <c r="Q27" t="n">
         <v>1634.460910521414</v>
@@ -6330,25 +6330,25 @@
         <v>1634.460910521414</v>
       </c>
       <c r="S27" t="n">
-        <v>1482.626092919787</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="T27" t="n">
-        <v>1327.834668909096</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="U27" t="n">
-        <v>1327.834668909096</v>
+        <v>1406.313735682648</v>
       </c>
       <c r="V27" t="n">
-        <v>1327.834668909096</v>
+        <v>1171.161627450905</v>
       </c>
       <c r="W27" t="n">
-        <v>1327.834668909096</v>
+        <v>916.9242707227033</v>
       </c>
       <c r="X27" t="n">
-        <v>1327.834668909096</v>
+        <v>709.0727705171705</v>
       </c>
       <c r="Y27" t="n">
-        <v>1120.074370144142</v>
+        <v>501.3124717522166</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>398.5156230863898</v>
+        <v>370.6923078186607</v>
       </c>
       <c r="C28" t="n">
-        <v>349.3160382184352</v>
+        <v>201.7561248907537</v>
       </c>
       <c r="D28" t="n">
-        <v>349.3160382184352</v>
+        <v>201.7561248907537</v>
       </c>
       <c r="E28" t="n">
-        <v>201.402944636042</v>
+        <v>201.7561248907537</v>
       </c>
       <c r="F28" t="n">
-        <v>201.402944636042</v>
+        <v>201.7561248907537</v>
       </c>
       <c r="G28" t="n">
-        <v>32.68921821042829</v>
+        <v>187.894134308256</v>
       </c>
       <c r="H28" t="n">
         <v>32.68921821042829</v>
@@ -6403,31 +6403,31 @@
         <v>941.5336983950485</v>
       </c>
       <c r="Q28" t="n">
-        <v>941.5336983950485</v>
+        <v>936.0715620113226</v>
       </c>
       <c r="R28" t="n">
-        <v>806.249959766707</v>
+        <v>800.7878233829811</v>
       </c>
       <c r="S28" t="n">
-        <v>806.249959766707</v>
+        <v>591.4848869621908</v>
       </c>
       <c r="T28" t="n">
-        <v>580.1640879166296</v>
+        <v>591.4848869621908</v>
       </c>
       <c r="U28" t="n">
-        <v>580.1640879166296</v>
+        <v>591.4848869621908</v>
       </c>
       <c r="V28" t="n">
-        <v>580.1640879166296</v>
+        <v>591.4848869621908</v>
       </c>
       <c r="W28" t="n">
-        <v>580.1640879166296</v>
+        <v>591.4848869621908</v>
       </c>
       <c r="X28" t="n">
-        <v>580.1640879166296</v>
+        <v>591.4848869621908</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.1640879166296</v>
+        <v>370.6923078186607</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>831.0662461670618</v>
+        <v>782.702707550175</v>
       </c>
       <c r="C29" t="n">
-        <v>831.0662461670618</v>
+        <v>428.7076568048996</v>
       </c>
       <c r="D29" t="n">
-        <v>831.0662461670618</v>
+        <v>428.7076568048996</v>
       </c>
       <c r="E29" t="n">
-        <v>831.0662461670618</v>
+        <v>428.7076568048996</v>
       </c>
       <c r="F29" t="n">
-        <v>435.0478075725905</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="G29" t="n">
         <v>32.68921821042829</v>
@@ -6461,25 +6461,25 @@
         <v>32.68921821042829</v>
       </c>
       <c r="J29" t="n">
-        <v>201.5083683128836</v>
+        <v>34.10271929253057</v>
       </c>
       <c r="K29" t="n">
-        <v>254.3653582685759</v>
+        <v>86.95970924822288</v>
       </c>
       <c r="L29" t="n">
-        <v>356.8408901013227</v>
+        <v>333.956298035801</v>
       </c>
       <c r="M29" t="n">
-        <v>502.5341016304759</v>
+        <v>738.485373389851</v>
       </c>
       <c r="N29" t="n">
-        <v>907.063176984526</v>
+        <v>1143.014448743901</v>
       </c>
       <c r="O29" t="n">
-        <v>1037.884663066733</v>
+        <v>1547.543524097951</v>
       </c>
       <c r="P29" t="n">
-        <v>1414.503794194804</v>
+        <v>1624.69563494811</v>
       </c>
       <c r="Q29" t="n">
         <v>1634.460910521414</v>
@@ -6488,25 +6488,25 @@
         <v>1634.460910521414</v>
       </c>
       <c r="S29" t="n">
-        <v>1487.783675138849</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="T29" t="n">
-        <v>1286.908236069661</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="U29" t="n">
-        <v>1147.161667315496</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="V29" t="n">
-        <v>831.0662461670618</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="W29" t="n">
-        <v>831.0662461670618</v>
+        <v>1296.659721446436</v>
       </c>
       <c r="X29" t="n">
-        <v>831.0662461670618</v>
+        <v>938.1614293804928</v>
       </c>
       <c r="Y29" t="n">
-        <v>831.0662461670618</v>
+        <v>782.702707550175</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>586.4981421209902</v>
+        <v>431.1277179633413</v>
       </c>
       <c r="C30" t="n">
-        <v>586.4981421209902</v>
+        <v>431.1277179633413</v>
       </c>
       <c r="D30" t="n">
-        <v>452.5311986548752</v>
+        <v>431.1277179633413</v>
       </c>
       <c r="E30" t="n">
-        <v>308.261209844556</v>
+        <v>286.8577291530221</v>
       </c>
       <c r="F30" t="n">
-        <v>190.6174079875736</v>
+        <v>155.2906373750433</v>
       </c>
       <c r="G30" t="n">
-        <v>68.01598882295852</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="H30" t="n">
-        <v>68.01598882295852</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="I30" t="n">
         <v>32.68921821042829</v>
       </c>
       <c r="J30" t="n">
-        <v>139.5433678014886</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="K30" t="n">
-        <v>448.7949720459615</v>
+        <v>341.9408224549012</v>
       </c>
       <c r="L30" t="n">
-        <v>853.3240474000115</v>
+        <v>746.4698978089511</v>
       </c>
       <c r="M30" t="n">
-        <v>1038.925278840873</v>
+        <v>972.1560777335959</v>
       </c>
       <c r="N30" t="n">
-        <v>1205.084422459009</v>
+        <v>1138.315221351733</v>
       </c>
       <c r="O30" t="n">
-        <v>1334.867781847292</v>
+        <v>1542.844296705783</v>
       </c>
       <c r="P30" t="n">
-        <v>1419.697303416189</v>
+        <v>1627.673818274679</v>
       </c>
       <c r="Q30" t="n">
         <v>1634.460910521414</v>
@@ -6567,25 +6567,25 @@
         <v>1634.460910521414</v>
       </c>
       <c r="S30" t="n">
-        <v>1634.460910521414</v>
+        <v>1497.593559114923</v>
       </c>
       <c r="T30" t="n">
-        <v>1451.92521590411</v>
+        <v>1449.893864011972</v>
       </c>
       <c r="U30" t="n">
-        <v>1238.74550726048</v>
+        <v>1236.714155368341</v>
       </c>
       <c r="V30" t="n">
-        <v>1018.560865223873</v>
+        <v>1016.529513331735</v>
       </c>
       <c r="W30" t="n">
-        <v>779.2909746908078</v>
+        <v>777.2596227986696</v>
       </c>
       <c r="X30" t="n">
-        <v>779.2909746908078</v>
+        <v>584.375588788273</v>
       </c>
       <c r="Y30" t="n">
-        <v>586.4981421209902</v>
+        <v>584.375588788273</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>480.6416450763679</v>
+        <v>453.5071329608793</v>
       </c>
       <c r="C31" t="n">
-        <v>326.6729283435972</v>
+        <v>453.5071329608793</v>
       </c>
       <c r="D31" t="n">
-        <v>326.6729283435972</v>
+        <v>318.3579597436799</v>
       </c>
       <c r="E31" t="n">
-        <v>326.6729283435972</v>
+        <v>318.3579597436799</v>
       </c>
       <c r="F31" t="n">
-        <v>326.6729283435972</v>
+        <v>186.4354784409058</v>
       </c>
       <c r="G31" t="n">
-        <v>172.9266681131197</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="H31" t="n">
         <v>32.68921821042829</v>
@@ -6649,22 +6649,22 @@
         <v>1038.86755385033</v>
       </c>
       <c r="T31" t="n">
-        <v>1038.86755385033</v>
+        <v>827.7491481953889</v>
       </c>
       <c r="U31" t="n">
-        <v>1038.86755385033</v>
+        <v>827.7491481953889</v>
       </c>
       <c r="V31" t="n">
-        <v>1038.86755385033</v>
+        <v>659.3322459092732</v>
       </c>
       <c r="W31" t="n">
-        <v>853.1477566598651</v>
+        <v>659.3322459092732</v>
       </c>
       <c r="X31" t="n">
-        <v>853.1477566598651</v>
+        <v>659.3322459092732</v>
       </c>
       <c r="Y31" t="n">
-        <v>647.3226437114713</v>
+        <v>453.5071329608793</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>489.8990054594142</v>
+        <v>1593.971903938398</v>
       </c>
       <c r="C32" t="n">
-        <v>489.8990054594142</v>
+        <v>1593.971903938398</v>
       </c>
       <c r="D32" t="n">
-        <v>146.6007730478</v>
+        <v>1250.673671526783</v>
       </c>
       <c r="E32" t="n">
-        <v>146.6007730478</v>
+        <v>1250.673671526783</v>
       </c>
       <c r="F32" t="n">
-        <v>146.6007730478</v>
+        <v>854.6552329323122</v>
       </c>
       <c r="G32" t="n">
-        <v>146.6007730478</v>
+        <v>452.2966435701499</v>
       </c>
       <c r="H32" t="n">
         <v>146.6007730478</v>
@@ -6698,25 +6698,25 @@
         <v>32.68921821042829</v>
       </c>
       <c r="J32" t="n">
-        <v>201.5083683128836</v>
+        <v>34.10271929253057</v>
       </c>
       <c r="K32" t="n">
-        <v>254.3653582685759</v>
+        <v>86.95970924822288</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8408901013227</v>
+        <v>491.4887846022729</v>
       </c>
       <c r="M32" t="n">
-        <v>761.3699654553727</v>
+        <v>637.1819961314261</v>
       </c>
       <c r="N32" t="n">
-        <v>1143.014448743901</v>
+        <v>1041.711071485476</v>
       </c>
       <c r="O32" t="n">
-        <v>1547.543524097951</v>
+        <v>1337.351683344645</v>
       </c>
       <c r="P32" t="n">
-        <v>1624.69563494811</v>
+        <v>1414.503794194804</v>
       </c>
       <c r="Q32" t="n">
         <v>1634.460910521414</v>
@@ -6728,22 +6728,22 @@
         <v>1634.460910521414</v>
       </c>
       <c r="T32" t="n">
-        <v>1433.585471452227</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="U32" t="n">
-        <v>1433.585471452227</v>
+        <v>1634.460910521414</v>
       </c>
       <c r="V32" t="n">
-        <v>1117.490050303792</v>
+        <v>1593.971903938398</v>
       </c>
       <c r="W32" t="n">
-        <v>865.0708712400897</v>
+        <v>1593.971903938398</v>
       </c>
       <c r="X32" t="n">
-        <v>865.0708712400897</v>
+        <v>1593.971903938398</v>
       </c>
       <c r="Y32" t="n">
-        <v>489.8990054594142</v>
+        <v>1593.971903938398</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>190.6174079875736</v>
+        <v>724.4853505935054</v>
       </c>
       <c r="C33" t="n">
-        <v>190.6174079875736</v>
+        <v>564.9997875075146</v>
       </c>
       <c r="D33" t="n">
-        <v>190.6174079875736</v>
+        <v>431.0328440413996</v>
       </c>
       <c r="E33" t="n">
-        <v>190.6174079875736</v>
+        <v>286.7628552310803</v>
       </c>
       <c r="F33" t="n">
-        <v>190.6174079875736</v>
+        <v>155.1957634531016</v>
       </c>
       <c r="G33" t="n">
-        <v>68.01598882295852</v>
+        <v>155.1957634531016</v>
       </c>
       <c r="H33" t="n">
         <v>68.01598882295852</v>
@@ -6783,19 +6783,19 @@
         <v>80.12023781244838</v>
       </c>
       <c r="L33" t="n">
-        <v>329.2570706436327</v>
+        <v>484.6493131664984</v>
       </c>
       <c r="M33" t="n">
-        <v>733.7861459976828</v>
+        <v>889.1783885205484</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.315221351733</v>
+        <v>1055.337532138685</v>
       </c>
       <c r="O33" t="n">
-        <v>1542.844296705783</v>
+        <v>1227.566155752245</v>
       </c>
       <c r="P33" t="n">
-        <v>1627.67381827468</v>
+        <v>1627.673818274679</v>
       </c>
       <c r="Q33" t="n">
         <v>1634.460910521414</v>
@@ -6810,19 +6810,19 @@
         <v>1315.057864497619</v>
       </c>
       <c r="U33" t="n">
-        <v>1101.878155853989</v>
+        <v>1263.410087998651</v>
       </c>
       <c r="V33" t="n">
-        <v>881.6935138173822</v>
+        <v>1263.410087998651</v>
       </c>
       <c r="W33" t="n">
-        <v>642.4236232843168</v>
+        <v>1263.410087998651</v>
       </c>
       <c r="X33" t="n">
-        <v>536.658111382323</v>
+        <v>1070.526053988255</v>
       </c>
       <c r="Y33" t="n">
-        <v>343.8652788125054</v>
+        <v>877.7332214184371</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>459.618555730854</v>
+        <v>167.8383914276278</v>
       </c>
       <c r="C34" t="n">
-        <v>459.618555730854</v>
+        <v>167.8383914276278</v>
       </c>
       <c r="D34" t="n">
-        <v>459.618555730854</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="E34" t="n">
-        <v>326.6729283435972</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="F34" t="n">
-        <v>326.6729283435972</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="G34" t="n">
-        <v>172.9266681131197</v>
+        <v>32.68921821042829</v>
       </c>
       <c r="H34" t="n">
         <v>32.68921821042829</v>
@@ -6886,22 +6886,22 @@
         <v>1038.86755385033</v>
       </c>
       <c r="T34" t="n">
-        <v>939.6342088021225</v>
+        <v>1038.86755385033</v>
       </c>
       <c r="U34" t="n">
-        <v>665.4436686792478</v>
+        <v>764.6770137274553</v>
       </c>
       <c r="V34" t="n">
-        <v>665.4436686792478</v>
+        <v>764.6770137274553</v>
       </c>
       <c r="W34" t="n">
-        <v>665.4436686792478</v>
+        <v>490.227309885631</v>
       </c>
       <c r="X34" t="n">
-        <v>665.4436686792478</v>
+        <v>373.6635043760216</v>
       </c>
       <c r="Y34" t="n">
-        <v>459.618555730854</v>
+        <v>167.8383914276278</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>927.3923267190003</v>
+        <v>252.7378280290771</v>
       </c>
       <c r="C35" t="n">
-        <v>721.1177910184713</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="D35" t="n">
-        <v>486.9278095237742</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="E35" t="n">
-        <v>252.7378280290771</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="F35" t="n">
-        <v>252.7378280290771</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="G35" t="n">
         <v>18.54784653438001</v>
@@ -6935,25 +6935,25 @@
         <v>18.54784653438001</v>
       </c>
       <c r="J35" t="n">
-        <v>187.3669966368353</v>
+        <v>19.96134761648229</v>
       </c>
       <c r="K35" t="n">
-        <v>240.2239865925276</v>
+        <v>72.81833757217461</v>
       </c>
       <c r="L35" t="n">
-        <v>342.6995184252743</v>
+        <v>175.2938694049213</v>
       </c>
       <c r="M35" t="n">
-        <v>488.3927299544276</v>
+        <v>320.9870809340746</v>
       </c>
       <c r="N35" t="n">
-        <v>641.0572183425186</v>
+        <v>473.6515693221655</v>
       </c>
       <c r="O35" t="n">
-        <v>771.8787044247254</v>
+        <v>604.4730554043722</v>
       </c>
       <c r="P35" t="n">
-        <v>849.030815274884</v>
+        <v>834.0026562673247</v>
       </c>
       <c r="Q35" t="n">
         <v>927.3923267190003</v>
@@ -6968,19 +6968,19 @@
         <v>927.3923267190003</v>
       </c>
       <c r="U35" t="n">
-        <v>927.3923267190003</v>
+        <v>721.1177910184713</v>
       </c>
       <c r="V35" t="n">
-        <v>927.3923267190003</v>
+        <v>486.9278095237742</v>
       </c>
       <c r="W35" t="n">
-        <v>927.3923267190003</v>
+        <v>486.9278095237742</v>
       </c>
       <c r="X35" t="n">
-        <v>927.3923267190003</v>
+        <v>486.9278095237742</v>
       </c>
       <c r="Y35" t="n">
-        <v>927.3923267190003</v>
+        <v>486.9278095237742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>560.9647472504381</v>
+        <v>259.8379945440664</v>
       </c>
       <c r="C36" t="n">
-        <v>401.4791841644474</v>
+        <v>100.3524314580756</v>
       </c>
       <c r="D36" t="n">
-        <v>267.5122406983323</v>
+        <v>100.3524314580756</v>
       </c>
       <c r="E36" t="n">
-        <v>267.5122406983323</v>
+        <v>100.3524314580756</v>
       </c>
       <c r="F36" t="n">
-        <v>141.1492656989951</v>
+        <v>100.3524314580756</v>
       </c>
       <c r="G36" t="n">
-        <v>18.54784653438001</v>
+        <v>100.3524314580756</v>
       </c>
       <c r="H36" t="n">
         <v>18.54784653438001</v>
@@ -7017,19 +7017,19 @@
         <v>18.54784653438001</v>
       </c>
       <c r="K36" t="n">
-        <v>137.196054900599</v>
+        <v>65.97886613640009</v>
       </c>
       <c r="L36" t="n">
-        <v>247.2954552620439</v>
+        <v>176.078266497845</v>
       </c>
       <c r="M36" t="n">
-        <v>395.1331306028933</v>
+        <v>405.6078673607976</v>
       </c>
       <c r="N36" t="n">
-        <v>561.29227422103</v>
+        <v>606.2461120404162</v>
       </c>
       <c r="O36" t="n">
-        <v>691.0756336093129</v>
+        <v>835.7757129033687</v>
       </c>
       <c r="P36" t="n">
         <v>920.6052344722655</v>
@@ -7050,16 +7050,16 @@
         <v>714.2126180753698</v>
       </c>
       <c r="V36" t="n">
-        <v>714.2126180753698</v>
+        <v>494.0279760387634</v>
       </c>
       <c r="W36" t="n">
-        <v>714.2126180753698</v>
+        <v>259.8379945440664</v>
       </c>
       <c r="X36" t="n">
-        <v>714.2126180753698</v>
+        <v>259.8379945440664</v>
       </c>
       <c r="Y36" t="n">
-        <v>714.2126180753698</v>
+        <v>259.8379945440664</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>435.7536189509793</v>
+        <v>172.0150926612973</v>
       </c>
       <c r="C37" t="n">
-        <v>435.7536189509793</v>
+        <v>172.0150926612973</v>
       </c>
       <c r="D37" t="n">
-        <v>435.7536189509793</v>
+        <v>172.0150926612973</v>
       </c>
       <c r="E37" t="n">
-        <v>435.7536189509793</v>
+        <v>172.0150926612973</v>
       </c>
       <c r="F37" t="n">
-        <v>435.7536189509793</v>
+        <v>40.09261135852324</v>
       </c>
       <c r="G37" t="n">
-        <v>282.0073587205018</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="H37" t="n">
-        <v>141.7699088178104</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="I37" t="n">
-        <v>29.01148456310431</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="J37" t="n">
         <v>18.54784653438001</v>
       </c>
       <c r="K37" t="n">
-        <v>107.4252100973296</v>
+        <v>107.4252100973294</v>
       </c>
       <c r="L37" t="n">
-        <v>276.6840706555714</v>
+        <v>276.6840706555713</v>
       </c>
       <c r="M37" t="n">
-        <v>465.5329303653286</v>
+        <v>465.5329303653285</v>
       </c>
       <c r="N37" t="n">
         <v>655.3260027109968</v>
@@ -7117,28 +7117,28 @@
         <v>927.3923267190003</v>
       </c>
       <c r="R37" t="n">
-        <v>864.2790706713304</v>
+        <v>807.076054285795</v>
       </c>
       <c r="S37" t="n">
-        <v>669.9436004456763</v>
+        <v>807.076054285795</v>
       </c>
       <c r="T37" t="n">
-        <v>669.9436004456763</v>
+        <v>807.076054285795</v>
       </c>
       <c r="U37" t="n">
-        <v>669.9436004456763</v>
+        <v>572.8860727910978</v>
       </c>
       <c r="V37" t="n">
-        <v>669.9436004456763</v>
+        <v>572.8860727910978</v>
       </c>
       <c r="W37" t="n">
-        <v>435.7536189509793</v>
+        <v>338.6960912964008</v>
       </c>
       <c r="X37" t="n">
-        <v>435.7536189509793</v>
+        <v>338.6960912964008</v>
       </c>
       <c r="Y37" t="n">
-        <v>435.7536189509793</v>
+        <v>338.6960912964008</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>693.2023452243031</v>
+        <v>224.822382234909</v>
       </c>
       <c r="C38" t="n">
-        <v>459.0123637296061</v>
+        <v>224.822382234909</v>
       </c>
       <c r="D38" t="n">
-        <v>252.7378280290771</v>
+        <v>224.822382234909</v>
       </c>
       <c r="E38" t="n">
-        <v>252.7378280290771</v>
+        <v>224.822382234909</v>
       </c>
       <c r="F38" t="n">
-        <v>18.54784653438001</v>
+        <v>224.822382234909</v>
       </c>
       <c r="G38" t="n">
-        <v>18.54784653438001</v>
+        <v>224.822382234909</v>
       </c>
       <c r="H38" t="n">
         <v>18.54784653438001</v>
@@ -7175,19 +7175,19 @@
         <v>19.96134761648229</v>
       </c>
       <c r="K38" t="n">
-        <v>72.81833757217461</v>
+        <v>231.9551099884777</v>
       </c>
       <c r="L38" t="n">
-        <v>175.2938694049213</v>
+        <v>334.4306418212244</v>
       </c>
       <c r="M38" t="n">
-        <v>320.9870809340746</v>
+        <v>480.1238533503776</v>
       </c>
       <c r="N38" t="n">
-        <v>473.6515693221655</v>
+        <v>709.6534542133302</v>
       </c>
       <c r="O38" t="n">
-        <v>688.097450282743</v>
+        <v>840.474940295537</v>
       </c>
       <c r="P38" t="n">
         <v>917.6270511456956</v>
@@ -7205,19 +7205,19 @@
         <v>927.3923267190003</v>
       </c>
       <c r="U38" t="n">
-        <v>927.3923267190003</v>
+        <v>693.2023452243031</v>
       </c>
       <c r="V38" t="n">
-        <v>927.3923267190003</v>
+        <v>459.0123637296061</v>
       </c>
       <c r="W38" t="n">
-        <v>927.3923267190003</v>
+        <v>459.0123637296061</v>
       </c>
       <c r="X38" t="n">
-        <v>927.3923267190003</v>
+        <v>224.822382234909</v>
       </c>
       <c r="Y38" t="n">
-        <v>693.2023452243031</v>
+        <v>224.822382234909</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.54784653438001</v>
+        <v>275.11620916511</v>
       </c>
       <c r="C39" t="n">
-        <v>18.54784653438001</v>
+        <v>275.11620916511</v>
       </c>
       <c r="D39" t="n">
-        <v>18.54784653438001</v>
+        <v>141.1492656989951</v>
       </c>
       <c r="E39" t="n">
-        <v>18.54784653438001</v>
+        <v>141.1492656989951</v>
       </c>
       <c r="F39" t="n">
-        <v>18.54784653438001</v>
+        <v>141.1492656989951</v>
       </c>
       <c r="G39" t="n">
         <v>18.54784653438001</v>
@@ -7251,25 +7251,25 @@
         <v>18.54784653438001</v>
       </c>
       <c r="J39" t="n">
-        <v>125.4019961254403</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="K39" t="n">
-        <v>172.8330157274604</v>
+        <v>65.97886613640009</v>
       </c>
       <c r="L39" t="n">
-        <v>282.9324160889054</v>
+        <v>292.2492930814301</v>
       </c>
       <c r="M39" t="n">
-        <v>430.7700914297548</v>
+        <v>440.0869684222795</v>
       </c>
       <c r="N39" t="n">
-        <v>596.9292350478914</v>
+        <v>606.2461120404162</v>
       </c>
       <c r="O39" t="n">
-        <v>726.7125944361744</v>
+        <v>835.7757129033687</v>
       </c>
       <c r="P39" t="n">
-        <v>811.5421160050712</v>
+        <v>920.6052344722655</v>
       </c>
       <c r="Q39" t="n">
         <v>927.3923267190003</v>
@@ -7278,25 +7278,25 @@
         <v>927.3923267190003</v>
       </c>
       <c r="S39" t="n">
-        <v>839.3500495342457</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="T39" t="n">
-        <v>839.3500495342457</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="U39" t="n">
-        <v>626.1703408906153</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="V39" t="n">
-        <v>405.9856988540088</v>
+        <v>707.2076846823938</v>
       </c>
       <c r="W39" t="n">
-        <v>171.7957173593118</v>
+        <v>660.7930757453242</v>
       </c>
       <c r="X39" t="n">
-        <v>171.7957173593118</v>
+        <v>467.9090417349277</v>
       </c>
       <c r="Y39" t="n">
-        <v>171.7957173593118</v>
+        <v>275.11620916511</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.55848784901093</v>
+        <v>42.06884512627113</v>
       </c>
       <c r="C40" t="n">
-        <v>53.55848784901093</v>
+        <v>42.06884512627113</v>
       </c>
       <c r="D40" t="n">
-        <v>53.55848784901093</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="E40" t="n">
-        <v>53.55848784901093</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="F40" t="n">
         <v>18.54784653438001</v>
@@ -7333,13 +7333,13 @@
         <v>18.54784653438001</v>
       </c>
       <c r="K40" t="n">
-        <v>107.4252100973295</v>
+        <v>107.4252100973296</v>
       </c>
       <c r="L40" t="n">
-        <v>276.6840706555713</v>
+        <v>276.6840706555714</v>
       </c>
       <c r="M40" t="n">
-        <v>465.5329303653285</v>
+        <v>465.5329303653286</v>
       </c>
       <c r="N40" t="n">
         <v>655.3260027109968</v>
@@ -7357,25 +7357,25 @@
         <v>927.3923267190003</v>
       </c>
       <c r="S40" t="n">
-        <v>733.0568564933462</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="T40" t="n">
-        <v>521.9384508384051</v>
+        <v>716.2739210640591</v>
       </c>
       <c r="U40" t="n">
-        <v>287.748469343708</v>
+        <v>482.083939569362</v>
       </c>
       <c r="V40" t="n">
-        <v>287.748469343708</v>
+        <v>247.893958074665</v>
       </c>
       <c r="W40" t="n">
-        <v>53.55848784901093</v>
+        <v>247.893958074665</v>
       </c>
       <c r="X40" t="n">
-        <v>53.55848784901093</v>
+        <v>247.893958074665</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.55848784901093</v>
+        <v>42.06884512627113</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>492.3269061551153</v>
+        <v>459.0123637296061</v>
       </c>
       <c r="C41" t="n">
-        <v>492.3269061551153</v>
+        <v>224.822382234909</v>
       </c>
       <c r="D41" t="n">
-        <v>258.1369246604182</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="E41" t="n">
-        <v>258.1369246604182</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="F41" t="n">
-        <v>23.94694316572117</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="G41" t="n">
-        <v>23.94694316572117</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="H41" t="n">
-        <v>23.94694316572117</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="I41" t="n">
         <v>18.54784653438001</v>
       </c>
       <c r="J41" t="n">
-        <v>187.3669966368353</v>
+        <v>19.96134761648229</v>
       </c>
       <c r="K41" t="n">
-        <v>240.2239865925276</v>
+        <v>72.81833757217461</v>
       </c>
       <c r="L41" t="n">
-        <v>342.6995184252743</v>
+        <v>258.918264283292</v>
       </c>
       <c r="M41" t="n">
-        <v>488.3927299544276</v>
+        <v>404.6114758124453</v>
       </c>
       <c r="N41" t="n">
-        <v>641.0572183425186</v>
+        <v>557.2759642005362</v>
       </c>
       <c r="O41" t="n">
-        <v>771.8787044247254</v>
+        <v>688.097450282743</v>
       </c>
       <c r="P41" t="n">
-        <v>849.030815274884</v>
+        <v>917.6270511456956</v>
       </c>
       <c r="Q41" t="n">
         <v>927.3923267190003</v>
@@ -7439,22 +7439,22 @@
         <v>927.3923267190003</v>
       </c>
       <c r="T41" t="n">
-        <v>726.5168876498124</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="U41" t="n">
-        <v>726.5168876498124</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="V41" t="n">
-        <v>492.3269061551153</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="W41" t="n">
-        <v>492.3269061551153</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="X41" t="n">
-        <v>492.3269061551153</v>
+        <v>927.3923267190003</v>
       </c>
       <c r="Y41" t="n">
-        <v>492.3269061551153</v>
+        <v>693.2023452243031</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.59797455999589</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="C42" t="n">
-        <v>97.59797455999589</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="D42" t="n">
-        <v>97.59797455999589</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="E42" t="n">
-        <v>97.59797455999589</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="F42" t="n">
         <v>18.54784653438001</v>
@@ -7491,22 +7491,22 @@
         <v>18.54784653438001</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4659336931471</v>
+        <v>248.0774473973326</v>
       </c>
       <c r="L42" t="n">
-        <v>391.9955345560996</v>
+        <v>358.1768477587775</v>
       </c>
       <c r="M42" t="n">
-        <v>539.833209896949</v>
+        <v>506.0145230996269</v>
       </c>
       <c r="N42" t="n">
-        <v>705.9923535150857</v>
+        <v>672.1736667177636</v>
       </c>
       <c r="O42" t="n">
-        <v>835.7757129033687</v>
+        <v>801.9570261060466</v>
       </c>
       <c r="P42" t="n">
-        <v>920.6052344722655</v>
+        <v>886.7865476749433</v>
       </c>
       <c r="Q42" t="n">
         <v>927.3923267190003</v>
@@ -7515,25 +7515,25 @@
         <v>927.3923267190003</v>
       </c>
       <c r="S42" t="n">
-        <v>927.3923267190003</v>
+        <v>848.3421986933844</v>
       </c>
       <c r="T42" t="n">
-        <v>744.8566321016959</v>
+        <v>665.80650407608</v>
       </c>
       <c r="U42" t="n">
-        <v>744.8566321016959</v>
+        <v>665.80650407608</v>
       </c>
       <c r="V42" t="n">
-        <v>524.6719900650895</v>
+        <v>445.6218620394736</v>
       </c>
       <c r="W42" t="n">
-        <v>290.4820085703925</v>
+        <v>211.4318805447766</v>
       </c>
       <c r="X42" t="n">
-        <v>97.59797455999589</v>
+        <v>18.54784653438001</v>
       </c>
       <c r="Y42" t="n">
-        <v>97.59797455999589</v>
+        <v>18.54784653438001</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>437.1622154548884</v>
+        <v>521.9384508384051</v>
       </c>
       <c r="C43" t="n">
-        <v>437.1622154548884</v>
+        <v>403.4662019945516</v>
       </c>
       <c r="D43" t="n">
-        <v>437.1622154548884</v>
+        <v>403.4662019945516</v>
       </c>
       <c r="E43" t="n">
-        <v>304.2165880676316</v>
+        <v>403.4662019945516</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2941067648575</v>
+        <v>271.5437206917775</v>
       </c>
       <c r="G43" t="n">
-        <v>18.54784653438001</v>
+        <v>271.5437206917775</v>
       </c>
       <c r="H43" t="n">
-        <v>18.54784653438001</v>
+        <v>131.3062707890861</v>
       </c>
       <c r="I43" t="n">
         <v>18.54784653438001</v>
@@ -7570,7 +7570,7 @@
         <v>18.54784653438001</v>
       </c>
       <c r="K43" t="n">
-        <v>107.4252100973294</v>
+        <v>107.4252100973293</v>
       </c>
       <c r="L43" t="n">
         <v>276.6840706555713</v>
@@ -7594,25 +7594,25 @@
         <v>927.3923267190003</v>
       </c>
       <c r="S43" t="n">
-        <v>905.5421784442826</v>
+        <v>733.0568564933462</v>
       </c>
       <c r="T43" t="n">
-        <v>905.5421784442826</v>
+        <v>521.9384508384051</v>
       </c>
       <c r="U43" t="n">
-        <v>671.3521969495855</v>
+        <v>521.9384508384051</v>
       </c>
       <c r="V43" t="n">
-        <v>437.1622154548884</v>
+        <v>521.9384508384051</v>
       </c>
       <c r="W43" t="n">
-        <v>437.1622154548884</v>
+        <v>521.9384508384051</v>
       </c>
       <c r="X43" t="n">
-        <v>437.1622154548884</v>
+        <v>521.9384508384051</v>
       </c>
       <c r="Y43" t="n">
-        <v>437.1622154548884</v>
+        <v>521.9384508384051</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>549.79938970818</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="C44" t="n">
-        <v>371.2467170308028</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="D44" t="n">
-        <v>192.6940443534255</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="E44" t="n">
-        <v>192.6940443534255</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="F44" t="n">
         <v>14.14137167604828</v>
@@ -7646,22 +7646,22 @@
         <v>14.14137167604828</v>
       </c>
       <c r="J44" t="n">
-        <v>35.63948959106055</v>
+        <v>15.55487275815056</v>
       </c>
       <c r="K44" t="n">
-        <v>88.49647954675287</v>
+        <v>68.41186271384288</v>
       </c>
       <c r="L44" t="n">
-        <v>190.9720113794996</v>
+        <v>170.8873945465896</v>
       </c>
       <c r="M44" t="n">
-        <v>336.6652229086528</v>
+        <v>316.5806060757428</v>
       </c>
       <c r="N44" t="n">
-        <v>489.3297112967438</v>
+        <v>469.2450944638338</v>
       </c>
       <c r="O44" t="n">
-        <v>620.1511973789505</v>
+        <v>600.0665805460405</v>
       </c>
       <c r="P44" t="n">
         <v>697.3033082291092</v>
@@ -7679,19 +7679,19 @@
         <v>707.0685838024139</v>
       </c>
       <c r="U44" t="n">
-        <v>707.0685838024139</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="V44" t="n">
-        <v>707.0685838024139</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="W44" t="n">
-        <v>707.0685838024139</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="X44" t="n">
-        <v>707.0685838024139</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="Y44" t="n">
-        <v>707.0685838024139</v>
+        <v>192.6940443534255</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.3832444628832</v>
+        <v>171.4105657702821</v>
       </c>
       <c r="C45" t="n">
-        <v>142.3832444628832</v>
+        <v>171.4105657702821</v>
       </c>
       <c r="D45" t="n">
-        <v>14.14137167604828</v>
+        <v>171.4105657702821</v>
       </c>
       <c r="E45" t="n">
-        <v>14.14137167604828</v>
+        <v>171.4105657702821</v>
       </c>
       <c r="F45" t="n">
-        <v>14.14137167604828</v>
+        <v>151.7102570357996</v>
       </c>
       <c r="G45" t="n">
         <v>14.14137167604828</v>
@@ -7749,28 +7749,28 @@
         <v>707.0685838024139</v>
       </c>
       <c r="R45" t="n">
-        <v>678.041262495015</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="S45" t="n">
-        <v>678.041262495015</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="T45" t="n">
-        <v>678.041262495015</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="U45" t="n">
-        <v>678.041262495015</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="V45" t="n">
-        <v>499.4885898176377</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="W45" t="n">
-        <v>320.9359171402605</v>
+        <v>349.9632384476594</v>
       </c>
       <c r="X45" t="n">
-        <v>142.3832444628832</v>
+        <v>171.4105657702821</v>
       </c>
       <c r="Y45" t="n">
-        <v>142.3832444628832</v>
+        <v>171.4105657702821</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.2173634355919</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="C46" t="n">
-        <v>209.2173634355919</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="D46" t="n">
-        <v>209.2173634355919</v>
+        <v>378.3992717127009</v>
       </c>
       <c r="E46" t="n">
-        <v>209.2173634355919</v>
+        <v>329.7450455995723</v>
       </c>
       <c r="F46" t="n">
-        <v>209.2173634355919</v>
+        <v>182.855098101662</v>
       </c>
       <c r="G46" t="n">
-        <v>209.2173634355919</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="H46" t="n">
-        <v>167.2983663497512</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="I46" t="n">
-        <v>39.57247589990885</v>
+        <v>14.14137167604828</v>
       </c>
       <c r="J46" t="n">
         <v>14.14137167604828</v>
       </c>
       <c r="K46" t="n">
-        <v>28.52244856632069</v>
+        <v>103.0187352389977</v>
       </c>
       <c r="L46" t="n">
-        <v>197.7813091245625</v>
+        <v>111.4276412711007</v>
       </c>
       <c r="M46" t="n">
-        <v>372.78078361566</v>
+        <v>286.4271157621981</v>
       </c>
       <c r="N46" t="n">
-        <v>547.7802581067574</v>
+        <v>461.4265902532956</v>
       </c>
       <c r="O46" t="n">
-        <v>707.0685838024139</v>
+        <v>594.2905854900669</v>
       </c>
       <c r="P46" t="n">
         <v>707.0685838024139</v>
       </c>
       <c r="Q46" t="n">
-        <v>701.6064474186879</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="R46" t="n">
-        <v>566.3227087903464</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="S46" t="n">
-        <v>387.7700361129691</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="T46" t="n">
-        <v>209.2173634355919</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="U46" t="n">
-        <v>209.2173634355919</v>
+        <v>707.0685838024139</v>
       </c>
       <c r="V46" t="n">
-        <v>209.2173634355919</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="W46" t="n">
-        <v>209.2173634355919</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="X46" t="n">
-        <v>209.2173634355919</v>
+        <v>528.5159111250366</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.2173634355919</v>
+        <v>528.5159111250366</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>20.28749175041412</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.28749175041429</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8857,7 +8857,7 @@
         <v>164.5203829107994</v>
       </c>
       <c r="N13" t="n">
-        <v>81.6259142916863</v>
+        <v>81.62591429168619</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>20.28749175041413</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>20.28749175041415</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>16.96865163460261</v>
+        <v>74.45251062386697</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5203829107994</v>
+        <v>164.5203829107993</v>
       </c>
       <c r="N16" t="n">
-        <v>156.8746887085316</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>35.61573359477389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>20.28749175041413</v>
+        <v>20.2874917504139</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9322,16 +9322,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>16.96865163460261</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>164.5203829107994</v>
+        <v>132.2291271900136</v>
       </c>
       <c r="N19" t="n">
-        <v>57.48385898926439</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>76.06099301262992</v>
       </c>
       <c r="K20" t="n">
-        <v>178.4571827346063</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>84.68322154929223</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>77.6415277523854</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>59.92855957970144</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>71.93655430727139</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>71.93655430727162</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>146.161696256622</v>
+        <v>146.1616962566219</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>305.104589415458</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>102.3266436953788</v>
+        <v>261.4503674998957</v>
       </c>
       <c r="N23" t="n">
         <v>254.4086737029889</v>
       </c>
       <c r="O23" t="n">
-        <v>276.4723123958014</v>
+        <v>253.3565628346683</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>18.15755090499437</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>63.20878763242604</v>
+        <v>297.4037121137425</v>
       </c>
       <c r="M24" t="n">
-        <v>259.2842424375766</v>
+        <v>24.63732148758626</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>277.5209252179466</v>
+        <v>277.5209252179465</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>80.05310780707484</v>
+        <v>142.7481528783437</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>261.4503674998958</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>18.15755090499437</v>
       </c>
       <c r="K27" t="n">
-        <v>148.7069622592714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>297.4037121137425</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>240.777708824155</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>37.69300969295423</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>145.9808656109408</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>261.4503674998958</v>
       </c>
       <c r="N29" t="n">
-        <v>254.408673702989</v>
+        <v>254.4086737029889</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>276.4723123958013</v>
       </c>
       <c r="P29" t="n">
-        <v>302.4919396746595</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>18.15755090499437</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>297.4037121137426</v>
+        <v>297.4037121137425</v>
       </c>
       <c r="M30" t="n">
-        <v>38.14500616162798</v>
+        <v>78.63485311494486</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>277.5209252179465</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>305.1045894154579</v>
       </c>
       <c r="M32" t="n">
-        <v>261.4503674998958</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>231.2929241418562</v>
+        <v>254.4086737029889</v>
       </c>
       <c r="O32" t="n">
-        <v>276.4723123958014</v>
+        <v>166.4839654312753</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10431,19 +10431,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>140.4418509795347</v>
+        <v>297.4037121137425</v>
       </c>
       <c r="M33" t="n">
-        <v>259.2842424375766</v>
+        <v>259.2842424375764</v>
       </c>
       <c r="N33" t="n">
-        <v>240.777708824155</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>277.5209252179466</v>
+        <v>42.87400426795648</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>153.9166565785797</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.28912714223397</v>
+        <v>84.46908573572826</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,22 +10665,22 @@
         <v>18.15755090499437</v>
       </c>
       <c r="K36" t="n">
-        <v>71.93655430727162</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>82.51709648697295</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>34.82737480957766</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>100.753779267343</v>
       </c>
       <c r="P36" t="n">
-        <v>146.161696256622</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>160.7442145619223</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>77.64152775238546</v>
       </c>
       <c r="O38" t="n">
-        <v>84.46908573572804</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>153.9166565785797</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>18.15755090499437</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>117.3444712965506</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>100.753779267343</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.164766128479</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,7 +10981,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>84.46908573572802</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>153.9166565785797</v>
       </c>
       <c r="Q41" t="n">
-        <v>69.28912714223397</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,10 +11139,10 @@
         <v>18.15755090499437</v>
       </c>
       <c r="K42" t="n">
-        <v>97.46168440075454</v>
+        <v>183.9379608696288</v>
       </c>
       <c r="L42" t="n">
-        <v>120.636566163139</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>34.16028969426476</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>20.28749175041413</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>20.28749175041418</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>31.49499192780706</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>164.5203829107993</v>
+        <v>164.5203829107994</v>
       </c>
       <c r="N46" t="n">
         <v>156.8746887085316</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>136.3504234781197</v>
       </c>
       <c r="P46" t="n">
-        <v>21.08939330156942</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>354.627570332372</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,10 +23264,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>226.2338679189703</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>230.1088997911079</v>
+        <v>230.108899791108</v>
       </c>
       <c r="G11" t="n">
         <v>236.385649051122</v>
@@ -23276,7 +23276,7 @@
         <v>140.6895573997078</v>
       </c>
       <c r="I11" t="n">
-        <v>127.5902308221829</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23340,16 +23340,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1931965061538</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23388,10 +23388,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>144.5909155958062</v>
+        <v>195.5281292043162</v>
       </c>
       <c r="U12" t="n">
-        <v>225.865703090379</v>
+        <v>151.1007523613671</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,13 +23431,13 @@
         <v>167.0265891613576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.6528669368494</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>126.4486315453439</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.17679318162196</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.9309012420581</v>
       </c>
       <c r="S13" t="n">
-        <v>30.44276110597886</v>
+        <v>30.44276110597889</v>
       </c>
       <c r="T13" t="n">
-        <v>223.8250131315766</v>
+        <v>47.05786718097315</v>
       </c>
       <c r="U13" t="n">
-        <v>221.6523401260944</v>
+        <v>286.2664262548308</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>92.32833133844952</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>354.627570332372</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>353.8240987411532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>230.108899791108</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>89.48186135152291</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>49.79129443958983</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>49.51799865340539</v>
+        <v>28.9155498267009</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>24.13547802864579</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,10 +23671,10 @@
         <v>153.6528669368494</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>126.4486315453439</v>
       </c>
       <c r="J16" t="n">
-        <v>1.336437593563023</v>
+        <v>25.17679318162196</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5.407515019888663</v>
       </c>
       <c r="R16" t="n">
         <v>133.9309012420581</v>
@@ -23707,7 +23707,7 @@
         <v>47.05786718097315</v>
       </c>
       <c r="U16" t="n">
-        <v>109.4992803042274</v>
+        <v>286.2664262548308</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>48.94250943843369</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>353.8240987411532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>230.108899791108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>236.385649051122</v>
+        <v>413.1527950017255</v>
       </c>
       <c r="H17" t="n">
-        <v>140.6895573997078</v>
+        <v>317.4567033503113</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>127.5902308221829</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.8177915331849</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>160.0282545619244</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.6844762116809</v>
+        <v>36.9173302610775</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1736575067637</v>
+        <v>74.40651155616032</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>170.1346564613493</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.480383331501997</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>49.79129443958983</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23871,13 +23871,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>202.2829474575072</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>28.91554982670095</v>
       </c>
     </row>
     <row r="19">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.064834231333833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23911,7 +23911,7 @@
         <v>126.4486315453439</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>25.17679318162196</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>30.44276110597889</v>
+        <v>207.2099070565824</v>
       </c>
       <c r="T19" t="n">
-        <v>223.8250131315766</v>
+        <v>47.0578671809732</v>
       </c>
       <c r="U19" t="n">
         <v>286.2664262548308</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>198.7876643553915</v>
+        <v>175.7923815454128</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>41.81750740149138</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>150.8857599837306</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>122.8349599409329</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>330.2544862203707</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>181.3047133219754</v>
+        <v>413.1527950017255</v>
       </c>
       <c r="H20" t="n">
-        <v>85.60862167056121</v>
+        <v>317.4567033503113</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>127.5902308221829</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>213.6844762116809</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1736575067637</v>
+        <v>46.96186716324004</v>
       </c>
       <c r="V20" t="n">
-        <v>95.90417679038484</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>117.392887037663</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24054,13 +24054,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>76.54153646772387</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24099,19 +24099,19 @@
         <v>150.3164694256111</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.5281292043162</v>
       </c>
       <c r="U21" t="n">
         <v>225.865703090379</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9525054696752022</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>12.58339124253627</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.0265891613576</v>
       </c>
       <c r="H22" t="n">
-        <v>153.6528669368494</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>30.79865654988627</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>25.17679318162196</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.407515019888663</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.9309012420581</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>207.2099070565824</v>
       </c>
       <c r="T22" t="n">
         <v>223.8250131315766</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>54.67491665684094</v>
+        <v>210.706142992974</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>283.8074130274448</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>4.537567371371836</v>
+        <v>4.537567371371892</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>317.4567033503113</v>
       </c>
       <c r="I23" t="n">
-        <v>127.5902308221829</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.8177915331849</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>160.0282545619244</v>
       </c>
       <c r="T23" t="n">
-        <v>213.6844762116809</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1736575067637</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>139.8100368586865</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1931965061538</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>28.73704809432486</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>38.12444100967187</v>
+        <v>150.3164694256111</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.865703090379</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>19.48017653278384</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9880546229985</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0265891613576</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>126.4486315453439</v>
       </c>
       <c r="J25" t="n">
         <v>25.17679318162196</v>
@@ -24409,25 +24409,25 @@
         <v>5.407515019888663</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.9309012420581</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.2099070565824</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.8250131315766</v>
       </c>
       <c r="U25" t="n">
-        <v>231.5777107844673</v>
+        <v>286.2664262548308</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>230.1225252022647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.1527950017255</v>
+        <v>4.537567371371892</v>
       </c>
       <c r="H26" t="n">
-        <v>317.4567033503113</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>127.5902308221829</v>
@@ -24500,16 +24500,16 @@
         <v>251.1736575067637</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>258.5307046297359</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24522,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>96.23620901854606</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.1931965061538</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>49.79129443958983</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>28.73704809432486</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.3164694256111</v>
       </c>
       <c r="T27" t="n">
-        <v>42.28461943373222</v>
+        <v>195.5281292043162</v>
       </c>
       <c r="U27" t="n">
-        <v>225.865703090379</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>118.5392320793527</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>153.3032184846849</v>
       </c>
       <c r="H28" t="n">
-        <v>153.6528669368494</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>126.4486315453439</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.407515019888663</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>207.2099070565824</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.8250131315766</v>
       </c>
       <c r="U28" t="n">
         <v>286.2664262548308</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>367.9160501302957</v>
       </c>
       <c r="C29" t="n">
-        <v>350.4551002378226</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>339.8652500874981</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3350034685405</v>
       </c>
       <c r="H29" t="n">
         <v>302.6389118171264</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>145.2104630287395</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>198.866684678496</v>
       </c>
       <c r="U29" t="n">
-        <v>98.00676290695517</v>
+        <v>236.3558659735788</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>312.93446693695</v>
       </c>
       <c r="W29" t="n">
-        <v>334.4231771842281</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>354.9133091452841</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>371.4201471228687</v>
+        <v>217.5160125108541</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>151.7153921166824</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>157.8907074551308</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>132.6272740314539</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>13.7840570217864</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>86.3079768838416</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>34.97350290640492</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>13.91925656113996</v>
       </c>
       <c r="S30" t="n">
-        <v>135.4986778924262</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>133.4876395192094</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>190.9551936702926</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.8649042441195</v>
       </c>
     </row>
     <row r="31">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>165.0141886487524</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>152.4290295654429</v>
       </c>
       <c r="D31" t="n">
-        <v>133.7976814850275</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>131.6161711133843</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6032564897463</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8350754036645</v>
       </c>
       <c r="I31" t="n">
         <v>111.630840012159</v>
@@ -24889,16 +24889,16 @@
         <v>192.3921155233975</v>
       </c>
       <c r="T31" t="n">
-        <v>209.0072215983917</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>271.4486347216459</v>
       </c>
       <c r="V31" t="n">
-        <v>237.3198517906431</v>
+        <v>70.58711852738855</v>
       </c>
       <c r="W31" t="n">
-        <v>87.84260758484578</v>
+        <v>271.7052068034061</v>
       </c>
       <c r="X31" t="n">
         <v>210.8918638558523</v>
@@ -24926,13 +24926,13 @@
         <v>367.1125785390769</v>
       </c>
       <c r="F32" t="n">
-        <v>392.0582542085265</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3350034685405</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>302.6389118171264</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,22 +24968,22 @@
         <v>145.2104630287395</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>198.866684678496</v>
       </c>
       <c r="U32" t="n">
         <v>236.3558659735788</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>272.8503504197636</v>
       </c>
       <c r="W32" t="n">
-        <v>84.52818991116257</v>
+        <v>334.4231771842281</v>
       </c>
       <c r="X32" t="n">
         <v>354.9133091452841</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>371.4201471228687</v>
       </c>
     </row>
     <row r="33">
@@ -24996,22 +24996,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>157.8907074551308</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6272740314539</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>142.827288922216</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>130.251420860199</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>121.3754049729689</v>
       </c>
       <c r="H33" t="n">
-        <v>86.3079768838416</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25050,16 +25050,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>159.9166128232163</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>217.9827956162404</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>236.8771916277347</v>
       </c>
       <c r="X33" t="n">
-        <v>86.2473368873187</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>152.4290295654429</v>
       </c>
       <c r="D34" t="n">
-        <v>133.7976814850275</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>131.6161711133843</v>
       </c>
       <c r="F34" t="n">
         <v>130.6032564897463</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>152.2087976281727</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8350754036645</v>
       </c>
       <c r="I34" t="n">
         <v>111.630840012159</v>
@@ -25126,7 +25126,7 @@
         <v>192.3921155233975</v>
       </c>
       <c r="T34" t="n">
-        <v>110.7662100006663</v>
+        <v>209.0072215983917</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>237.3198517906431</v>
       </c>
       <c r="W34" t="n">
-        <v>271.7052068034061</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>210.8918638558523</v>
+        <v>95.49369640133897</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>367.9160501302957</v>
+        <v>136.0679684505456</v>
       </c>
       <c r="C35" t="n">
-        <v>146.243309894299</v>
+        <v>118.6070185580726</v>
       </c>
       <c r="D35" t="n">
-        <v>108.017168407748</v>
+        <v>339.8652500874981</v>
       </c>
       <c r="E35" t="n">
-        <v>135.2644968593268</v>
+        <v>367.1125785390769</v>
       </c>
       <c r="F35" t="n">
         <v>392.0582542085265</v>
       </c>
       <c r="G35" t="n">
-        <v>166.4869217887905</v>
+        <v>398.3350034685405</v>
       </c>
       <c r="H35" t="n">
         <v>302.6389118171264</v>
@@ -25208,10 +25208,10 @@
         <v>198.866684678496</v>
       </c>
       <c r="U35" t="n">
-        <v>236.3558659735788</v>
+        <v>32.14407563005514</v>
       </c>
       <c r="V35" t="n">
-        <v>312.93446693695</v>
+        <v>81.08638525719994</v>
       </c>
       <c r="W35" t="n">
         <v>334.4231771842281</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>151.7153921166824</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>132.6272740314539</v>
       </c>
       <c r="E36" t="n">
         <v>142.827288922216</v>
       </c>
       <c r="F36" t="n">
-        <v>5.152075610855093</v>
+        <v>130.251420860199</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>121.3754049729689</v>
       </c>
       <c r="H36" t="n">
-        <v>86.3079768838416</v>
+        <v>5.321437809382957</v>
       </c>
       <c r="I36" t="n">
         <v>34.97350290640492</v>
@@ -25290,10 +25290,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>217.9827956162404</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>236.8771916277347</v>
+        <v>5.029109947984637</v>
       </c>
       <c r="X36" t="n">
         <v>190.9551936702926</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.0141886487524</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>152.4290295654429</v>
@@ -25321,19 +25321,19 @@
         <v>131.6161711133843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6032564897463</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.8794804522709</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.8350754036645</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>111.630840012159</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>10.35900164843706</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>56.63098622168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>192.3921155233975</v>
       </c>
       <c r="T37" t="n">
         <v>209.0072215983917</v>
       </c>
       <c r="U37" t="n">
-        <v>271.4486347216459</v>
+        <v>39.60055304189586</v>
       </c>
       <c r="V37" t="n">
         <v>237.3198517906431</v>
@@ -25391,22 +25391,22 @@
         <v>367.9160501302957</v>
       </c>
       <c r="C38" t="n">
-        <v>118.6070185580726</v>
+        <v>350.4551002378226</v>
       </c>
       <c r="D38" t="n">
-        <v>135.6534597439743</v>
+        <v>339.8652500874981</v>
       </c>
       <c r="E38" t="n">
         <v>367.1125785390769</v>
       </c>
       <c r="F38" t="n">
-        <v>160.2101725287765</v>
+        <v>392.0582542085265</v>
       </c>
       <c r="G38" t="n">
         <v>398.3350034685405</v>
       </c>
       <c r="H38" t="n">
-        <v>302.6389118171264</v>
+        <v>98.42712147360265</v>
       </c>
       <c r="I38" t="n">
         <v>112.772439288998</v>
@@ -25445,19 +25445,19 @@
         <v>198.866684678496</v>
       </c>
       <c r="U38" t="n">
-        <v>236.3558659735788</v>
+        <v>4.507784293828763</v>
       </c>
       <c r="V38" t="n">
-        <v>312.93446693695</v>
+        <v>81.08638525719994</v>
       </c>
       <c r="W38" t="n">
         <v>334.4231771842281</v>
       </c>
       <c r="X38" t="n">
-        <v>354.9133091452841</v>
+        <v>123.0652274655341</v>
       </c>
       <c r="Y38" t="n">
-        <v>139.5720654431186</v>
+        <v>371.4201471228687</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>151.7153921166824</v>
       </c>
       <c r="C39" t="n">
         <v>157.8907074551308</v>
       </c>
       <c r="D39" t="n">
-        <v>132.6272740314539</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>142.827288922216</v>
@@ -25482,7 +25482,7 @@
         <v>130.251420860199</v>
       </c>
       <c r="G39" t="n">
-        <v>121.3754049729689</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>86.3079768838416</v>
@@ -25518,25 +25518,25 @@
         <v>13.91925656113996</v>
       </c>
       <c r="S39" t="n">
-        <v>48.33682347951921</v>
+        <v>135.4986778924262</v>
       </c>
       <c r="T39" t="n">
         <v>180.7103376711313</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>211.0479115571941</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>5.029109947984637</v>
+        <v>190.9267287800358</v>
       </c>
       <c r="X39" t="n">
-        <v>190.9551936702926</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.8649042441195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25552,13 +25552,13 @@
         <v>152.4290295654429</v>
       </c>
       <c r="D40" t="n">
-        <v>133.7976814850275</v>
+        <v>110.5118928790552</v>
       </c>
       <c r="E40" t="n">
         <v>131.6161711133843</v>
       </c>
       <c r="F40" t="n">
-        <v>95.94272158826173</v>
+        <v>130.6032564897463</v>
       </c>
       <c r="G40" t="n">
         <v>152.2087976281727</v>
@@ -25597,7 +25597,7 @@
         <v>119.1131097088732</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.3921155233975</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>39.60055304189586</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3198517906431</v>
+        <v>5.471770110893033</v>
       </c>
       <c r="W40" t="n">
-        <v>39.85712512365603</v>
+        <v>271.7052068034061</v>
       </c>
       <c r="X40" t="n">
         <v>210.8918638558523</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.7668618189099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>367.9160501302957</v>
+        <v>136.0679684505456</v>
       </c>
       <c r="C41" t="n">
-        <v>350.4551002378226</v>
+        <v>118.6070185580726</v>
       </c>
       <c r="D41" t="n">
-        <v>108.017168407748</v>
+        <v>135.6534597439743</v>
       </c>
       <c r="E41" t="n">
         <v>367.1125785390769</v>
       </c>
       <c r="F41" t="n">
-        <v>160.2101725287765</v>
+        <v>392.0582542085265</v>
       </c>
       <c r="G41" t="n">
         <v>398.3350034685405</v>
@@ -25646,7 +25646,7 @@
         <v>302.6389118171264</v>
       </c>
       <c r="I41" t="n">
-        <v>107.4273336239703</v>
+        <v>112.772439288998</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>145.2104630287395</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>198.866684678496</v>
       </c>
       <c r="U41" t="n">
         <v>236.3558659735788</v>
       </c>
       <c r="V41" t="n">
-        <v>81.08638525719994</v>
+        <v>312.93446693695</v>
       </c>
       <c r="W41" t="n">
         <v>334.4231771842281</v>
@@ -25694,7 +25694,7 @@
         <v>354.9133091452841</v>
       </c>
       <c r="Y41" t="n">
-        <v>371.4201471228687</v>
+        <v>139.5720654431186</v>
       </c>
     </row>
     <row r="42">
@@ -25716,7 +25716,7 @@
         <v>142.827288922216</v>
       </c>
       <c r="F42" t="n">
-        <v>51.99179411483925</v>
+        <v>130.251420860199</v>
       </c>
       <c r="G42" t="n">
         <v>121.3754049729689</v>
@@ -25755,7 +25755,7 @@
         <v>13.91925656113996</v>
       </c>
       <c r="S42" t="n">
-        <v>135.4986778924262</v>
+        <v>57.23905114706648</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>165.0141886487524</v>
       </c>
       <c r="C43" t="n">
-        <v>152.4290295654429</v>
+        <v>35.14150321002803</v>
       </c>
       <c r="D43" t="n">
         <v>133.7976814850275</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>131.6161711133843</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.2087976281727</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8350754036645</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>111.630840012159</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>10.35900164843706</v>
@@ -25834,16 +25834,16 @@
         <v>119.1131097088732</v>
       </c>
       <c r="S43" t="n">
-        <v>170.760468731427</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>209.0072215983917</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.60055304189586</v>
+        <v>271.4486347216459</v>
       </c>
       <c r="V43" t="n">
-        <v>5.471770110893033</v>
+        <v>237.3198517906431</v>
       </c>
       <c r="W43" t="n">
         <v>271.7052068034061</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>227.0373395101891</v>
+        <v>205.9666957128771</v>
       </c>
       <c r="C44" t="n">
-        <v>188.5057458204041</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>177.9158956700795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>230.108899791108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.1527950017255</v>
@@ -25919,19 +25919,19 @@
         <v>213.6844762116809</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1736575067637</v>
+        <v>74.40651155616027</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>172.4738227668095</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>230.5414365027621</v>
       </c>
     </row>
     <row r="45">
@@ -25947,16 +25947,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>20.48561150567215</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>125.5659067462462</v>
       </c>
       <c r="G45" t="n">
-        <v>136.1931965061538</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>101.1257684170265</v>
@@ -25989,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>28.73704809432486</v>
       </c>
       <c r="S45" t="n">
         <v>150.3164694256111</v>
       </c>
       <c r="T45" t="n">
-        <v>195.5281292043162</v>
+        <v>18.76098325371274</v>
       </c>
       <c r="U45" t="n">
         <v>225.865703090379</v>
       </c>
       <c r="V45" t="n">
-        <v>56.03344119882181</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>74.92783721031614</v>
@@ -26026,25 +26026,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>98.26627879457195</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0265891613576</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>112.1530598218671</v>
+        <v>153.6528669368494</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>126.4486315453439</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>25.17679318162196</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,22 +26065,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.407515019888663</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.9309012420581</v>
       </c>
       <c r="S46" t="n">
-        <v>30.44276110597889</v>
+        <v>207.2099070565824</v>
       </c>
       <c r="T46" t="n">
-        <v>47.05786718097315</v>
+        <v>223.8250131315766</v>
       </c>
       <c r="U46" t="n">
         <v>286.2664262548308</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>75.37049737322454</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357396.7131282311</v>
+        <v>357396.7131282309</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>401358.1744527321</v>
+        <v>401358.1744527322</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519248.8172433616</v>
+        <v>519248.8172433615</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519248.8172433617</v>
+        <v>519248.8172433614</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>555725.9275081625</v>
+        <v>555725.9275081623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555725.9275081623</v>
+        <v>555725.9275081622</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435580.4486220559</v>
+        <v>435580.448622056</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435580.448622056</v>
+        <v>435580.4486220559</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.162505705</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.162505705</v>
       </c>
       <c r="E2" t="n">
-        <v>274240.9356629866</v>
+        <v>274240.9356629867</v>
       </c>
       <c r="F2" t="n">
         <v>274240.9356629867</v>
@@ -26329,19 +26329,19 @@
         <v>274240.9356629865</v>
       </c>
       <c r="H2" t="n">
-        <v>298427.6641549702</v>
+        <v>298427.6641549701</v>
       </c>
       <c r="I2" t="n">
         <v>363288.7693824525</v>
       </c>
       <c r="J2" t="n">
-        <v>363288.7693824528</v>
+        <v>363288.7693824525</v>
       </c>
       <c r="K2" t="n">
         <v>392283.3954903716</v>
       </c>
       <c r="L2" t="n">
-        <v>392283.3954903716</v>
+        <v>392283.3954903717</v>
       </c>
       <c r="M2" t="n">
         <v>325629.9846485354</v>
@@ -26350,10 +26350,10 @@
         <v>325629.9846485354</v>
       </c>
       <c r="O2" t="n">
-        <v>325629.9846485353</v>
+        <v>325629.9846485354</v>
       </c>
       <c r="P2" t="n">
-        <v>274240.9356629865</v>
+        <v>274240.9356629866</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>437610.3466166251</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="C4" t="n">
-        <v>437610.3466166251</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>437610.3466166251</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>12718.32396983666</v>
+        <v>12537.2069990426</v>
       </c>
       <c r="F4" t="n">
-        <v>12718.32396983665</v>
+        <v>12537.2069990426</v>
       </c>
       <c r="G4" t="n">
-        <v>12718.32396983665</v>
+        <v>12537.20699904259</v>
       </c>
       <c r="H4" t="n">
-        <v>26497.00629712339</v>
+        <v>26117.96696340568</v>
       </c>
       <c r="I4" t="n">
-        <v>63447.04543211447</v>
+        <v>62537.24133569982</v>
       </c>
       <c r="J4" t="n">
-        <v>63447.04543211446</v>
+        <v>62537.24133569983</v>
       </c>
       <c r="K4" t="n">
-        <v>84831.16390559109</v>
+        <v>83921.35980917646</v>
       </c>
       <c r="L4" t="n">
-        <v>84831.16390559109</v>
+        <v>83921.35980917644</v>
       </c>
       <c r="M4" t="n">
-        <v>46530.79844780801</v>
+        <v>46151.75911409032</v>
       </c>
       <c r="N4" t="n">
-        <v>46530.79844780802</v>
+        <v>46151.75911409032</v>
       </c>
       <c r="O4" t="n">
-        <v>46530.79844780802</v>
+        <v>46151.75911409032</v>
       </c>
       <c r="P4" t="n">
-        <v>12718.32396983665</v>
+        <v>12537.2069990426</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>22406.04323838851</v>
       </c>
       <c r="H5" t="n">
-        <v>25754.96413072063</v>
+        <v>25754.96413072062</v>
       </c>
       <c r="I5" t="n">
         <v>36502.40660451732</v>
@@ -26500,13 +26500,13 @@
         <v>37748.12352092064</v>
       </c>
       <c r="M5" t="n">
-        <v>27000.68104712394</v>
+        <v>27000.68104712395</v>
       </c>
       <c r="N5" t="n">
-        <v>27000.68104712394</v>
+        <v>27000.68104712395</v>
       </c>
       <c r="O5" t="n">
-        <v>27000.68104712394</v>
+        <v>27000.68104712395</v>
       </c>
       <c r="P5" t="n">
         <v>22406.04323838851</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163701.2158890797</v>
+        <v>165037.6827864568</v>
       </c>
       <c r="C6" t="n">
-        <v>163701.2158890798</v>
+        <v>165037.6827864569</v>
       </c>
       <c r="D6" t="n">
-        <v>163701.2158890798</v>
+        <v>165037.6827864569</v>
       </c>
       <c r="E6" t="n">
-        <v>-243320.6908927018</v>
+        <v>-243139.5739219076</v>
       </c>
       <c r="F6" t="n">
-        <v>239116.5684547615</v>
+        <v>239297.6854255555</v>
       </c>
       <c r="G6" t="n">
-        <v>239116.5684547614</v>
+        <v>239297.6854255554</v>
       </c>
       <c r="H6" t="n">
-        <v>231314.3615389809</v>
+        <v>231693.4008726985</v>
       </c>
       <c r="I6" t="n">
-        <v>216333.2211274903</v>
+        <v>217243.025223905</v>
       </c>
       <c r="J6" t="n">
-        <v>263339.3173458211</v>
+        <v>264249.1214422354</v>
       </c>
       <c r="K6" t="n">
-        <v>257849.8748373119</v>
+        <v>258759.6789337265</v>
       </c>
       <c r="L6" t="n">
-        <v>269704.1080638599</v>
+        <v>270613.9121602746</v>
       </c>
       <c r="M6" t="n">
-        <v>252098.5051536035</v>
+        <v>252477.5444873211</v>
       </c>
       <c r="N6" t="n">
-        <v>252098.5051536035</v>
+        <v>252477.5444873211</v>
       </c>
       <c r="O6" t="n">
-        <v>252098.5051536034</v>
+        <v>252477.5444873212</v>
       </c>
       <c r="P6" t="n">
-        <v>239116.5684547614</v>
+        <v>239297.6854255555</v>
       </c>
     </row>
   </sheetData>
@@ -26802,10 +26802,10 @@
         <v>176.7671459506035</v>
       </c>
       <c r="G4" t="n">
-        <v>176.7671459506035</v>
+        <v>176.7671459506034</v>
       </c>
       <c r="H4" t="n">
-        <v>231.8480816797501</v>
+        <v>231.84808167975</v>
       </c>
       <c r="I4" t="n">
         <v>408.6152276303536</v>
@@ -35410,7 +35410,7 @@
         <v>1.427778870810386</v>
       </c>
       <c r="K11" t="n">
-        <v>53.39089894514376</v>
+        <v>73.67839069555788</v>
       </c>
       <c r="L11" t="n">
         <v>103.5106382148957</v>
@@ -35428,7 +35428,7 @@
         <v>77.93142510117036</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.15140647092398</v>
+        <v>9.863914720509683</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>176.7671459506035</v>
       </c>
       <c r="N13" t="n">
-        <v>101.5183715337581</v>
+        <v>101.518371533758</v>
       </c>
       <c r="O13" t="n">
         <v>160.8972986824813</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.427778870810386</v>
+        <v>21.71527062122451</v>
       </c>
       <c r="K14" t="n">
         <v>53.39089894514376</v>
@@ -35653,7 +35653,7 @@
         <v>103.5106382148957</v>
       </c>
       <c r="M14" t="n">
-        <v>167.452351880872</v>
+        <v>147.1648601304578</v>
       </c>
       <c r="N14" t="n">
         <v>154.2065539273646</v>
@@ -35744,7 +35744,7 @@
         <v>85.68638542312809</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.855648734075572</v>
+        <v>6.855648734075556</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>57.48385898926437</v>
       </c>
       <c r="L16" t="n">
         <v>170.9685460184261</v>
@@ -35814,13 +35814,13 @@
         <v>176.7671459506035</v>
       </c>
       <c r="N16" t="n">
-        <v>176.7671459506035</v>
+        <v>19.89245724207183</v>
       </c>
       <c r="O16" t="n">
         <v>160.8972986824813</v>
       </c>
       <c r="P16" t="n">
-        <v>14.52634029320447</v>
+        <v>113.9171700124717</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21.71527062122451</v>
+        <v>21.71527062122429</v>
       </c>
       <c r="K17" t="n">
         <v>53.39089894514376</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>47.91012081012124</v>
+        <v>47.91012081012102</v>
       </c>
       <c r="L18" t="n">
         <v>111.2115155166111</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>89.77511471004992</v>
       </c>
       <c r="L19" t="n">
         <v>170.9685460184261</v>
       </c>
       <c r="M19" t="n">
-        <v>176.7671459506035</v>
+        <v>144.4758902298177</v>
       </c>
       <c r="N19" t="n">
-        <v>77.37631623133622</v>
+        <v>19.89245724207183</v>
       </c>
       <c r="O19" t="n">
         <v>160.8972986824813</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.427778870810386</v>
+        <v>77.48877188344031</v>
       </c>
       <c r="K20" t="n">
-        <v>231.8480816797501</v>
+        <v>53.39089894514376</v>
       </c>
       <c r="L20" t="n">
         <v>103.5106382148957</v>
       </c>
       <c r="M20" t="n">
-        <v>147.1648601304578</v>
+        <v>231.84808167975</v>
       </c>
       <c r="N20" t="n">
-        <v>154.2065539273646</v>
+        <v>231.84808167975</v>
       </c>
       <c r="O20" t="n">
         <v>132.1429152345522</v>
       </c>
       <c r="P20" t="n">
-        <v>137.8599846808718</v>
+        <v>77.93142510117036</v>
       </c>
       <c r="Q20" t="n">
         <v>9.863914720509683</v>
@@ -36203,7 +36203,7 @@
         <v>47.9101208101213</v>
       </c>
       <c r="L21" t="n">
-        <v>111.2115155166111</v>
+        <v>183.1480698238825</v>
       </c>
       <c r="M21" t="n">
         <v>149.3309851927771</v>
@@ -36212,10 +36212,10 @@
         <v>167.8375188061986</v>
       </c>
       <c r="O21" t="n">
-        <v>203.0308567196787</v>
+        <v>131.094302412407</v>
       </c>
       <c r="P21" t="n">
-        <v>231.8480816797501</v>
+        <v>231.84808167975</v>
       </c>
       <c r="Q21" t="n">
         <v>6.855648734075572</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.427778870810386</v>
+        <v>170.5243940428842</v>
       </c>
       <c r="K23" t="n">
         <v>53.39089894514376</v>
       </c>
       <c r="L23" t="n">
+        <v>103.5106382148957</v>
+      </c>
+      <c r="M23" t="n">
         <v>408.6152276303536</v>
-      </c>
-      <c r="M23" t="n">
-        <v>249.4915038258366</v>
       </c>
       <c r="N23" t="n">
         <v>408.6152276303536</v>
       </c>
       <c r="O23" t="n">
-        <v>408.6152276303536</v>
+        <v>385.4994780692206</v>
       </c>
       <c r="P23" t="n">
         <v>77.93142510117036</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>107.9334844354145</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>47.9101208101213</v>
       </c>
       <c r="L24" t="n">
-        <v>174.4203031490371</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="M24" t="n">
-        <v>408.6152276303536</v>
+        <v>173.9683066803634</v>
       </c>
       <c r="N24" t="n">
         <v>167.8375188061986</v>
@@ -36452,10 +36452,10 @@
         <v>408.6152276303536</v>
       </c>
       <c r="P24" t="n">
-        <v>85.68638542312809</v>
+        <v>404.1491540630652</v>
       </c>
       <c r="Q24" t="n">
-        <v>216.9329364699247</v>
+        <v>6.855648734075572</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>1.427778870810386</v>
       </c>
       <c r="K26" t="n">
-        <v>377.5363115163085</v>
+        <v>53.39089894514376</v>
       </c>
       <c r="L26" t="n">
-        <v>183.5637460219705</v>
+        <v>246.2587910932393</v>
       </c>
       <c r="M26" t="n">
-        <v>147.1648601304578</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="N26" t="n">
         <v>154.2065539273646</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>196.6170830693927</v>
+        <v>312.3753578226999</v>
       </c>
       <c r="L27" t="n">
-        <v>111.2115155166111</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="M27" t="n">
         <v>149.3309851927771</v>
       </c>
       <c r="N27" t="n">
-        <v>408.6152276303536</v>
+        <v>167.8375188061986</v>
       </c>
       <c r="O27" t="n">
-        <v>131.094302412407</v>
+        <v>168.7873121053613</v>
       </c>
       <c r="P27" t="n">
         <v>404.1491540630652</v>
       </c>
       <c r="Q27" t="n">
-        <v>216.9329364699247</v>
+        <v>6.855648734075572</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>170.5243940428842</v>
+        <v>1.427778870810386</v>
       </c>
       <c r="K29" t="n">
         <v>53.39089894514376</v>
       </c>
       <c r="L29" t="n">
-        <v>103.5106382148957</v>
+        <v>249.4915038258365</v>
       </c>
       <c r="M29" t="n">
-        <v>147.1648601304578</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="N29" t="n">
         <v>408.6152276303536</v>
       </c>
       <c r="O29" t="n">
-        <v>132.1429152345522</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="P29" t="n">
-        <v>380.4233647758298</v>
+        <v>77.93142510117036</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.1789053804144</v>
+        <v>9.863914720509683</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>107.9334844354145</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>312.3753578226999</v>
@@ -36917,19 +36917,19 @@
         <v>408.6152276303536</v>
       </c>
       <c r="M30" t="n">
-        <v>187.4759913544051</v>
+        <v>227.965838307722</v>
       </c>
       <c r="N30" t="n">
         <v>167.8375188061986</v>
       </c>
       <c r="O30" t="n">
-        <v>131.094302412407</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="P30" t="n">
         <v>85.68638542312809</v>
       </c>
       <c r="Q30" t="n">
-        <v>216.9329364699247</v>
+        <v>6.855648734075572</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>170.5243940428842</v>
+        <v>1.427778870810386</v>
       </c>
       <c r="K32" t="n">
         <v>53.39089894514376</v>
       </c>
       <c r="L32" t="n">
-        <v>103.5106382148957</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="M32" t="n">
+        <v>147.1648601304578</v>
+      </c>
+      <c r="N32" t="n">
         <v>408.6152276303536</v>
       </c>
-      <c r="N32" t="n">
-        <v>385.4994780692208</v>
-      </c>
       <c r="O32" t="n">
-        <v>408.6152276303536</v>
+        <v>298.6268806658275</v>
       </c>
       <c r="P32" t="n">
         <v>77.93142510117036</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.863914720509683</v>
+        <v>222.1789053804144</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>47.9101208101213</v>
       </c>
       <c r="L33" t="n">
-        <v>251.6533664961458</v>
+        <v>408.6152276303536</v>
       </c>
       <c r="M33" t="n">
         <v>408.6152276303536</v>
       </c>
       <c r="N33" t="n">
-        <v>408.6152276303536</v>
+        <v>167.8375188061986</v>
       </c>
       <c r="O33" t="n">
-        <v>408.6152276303536</v>
+        <v>173.9683066803635</v>
       </c>
       <c r="P33" t="n">
-        <v>85.68638542312809</v>
+        <v>404.1491540630652</v>
       </c>
       <c r="Q33" t="n">
         <v>6.855648734075572</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>170.5243940428842</v>
+        <v>1.427778870810386</v>
       </c>
       <c r="K35" t="n">
         <v>53.39089894514376</v>
@@ -37321,10 +37321,10 @@
         <v>132.1429152345522</v>
       </c>
       <c r="P35" t="n">
-        <v>77.93142510117036</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="Q35" t="n">
-        <v>79.15304186274365</v>
+        <v>94.33300045623794</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>119.8466751173929</v>
+        <v>47.9101208101213</v>
       </c>
       <c r="L36" t="n">
         <v>111.2115155166111</v>
       </c>
       <c r="M36" t="n">
-        <v>149.3309851927771</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="N36" t="n">
-        <v>167.8375188061986</v>
+        <v>202.6648936157763</v>
       </c>
       <c r="O36" t="n">
-        <v>131.094302412407</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="P36" t="n">
-        <v>231.8480816797501</v>
+        <v>85.68638542312809</v>
       </c>
       <c r="Q36" t="n">
         <v>6.855648734075572</v>
@@ -37470,7 +37470,7 @@
         <v>170.9685460184261</v>
       </c>
       <c r="M37" t="n">
-        <v>190.7564239492498</v>
+        <v>190.7564239492497</v>
       </c>
       <c r="N37" t="n">
         <v>191.7101740865336</v>
@@ -37543,7 +37543,7 @@
         <v>1.427778870810386</v>
       </c>
       <c r="K38" t="n">
-        <v>53.39089894514376</v>
+        <v>214.135113507066</v>
       </c>
       <c r="L38" t="n">
         <v>103.5106382148957</v>
@@ -37552,13 +37552,13 @@
         <v>147.1648601304578</v>
       </c>
       <c r="N38" t="n">
-        <v>154.2065539273646</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6120009702803</v>
+        <v>132.1429152345522</v>
       </c>
       <c r="P38" t="n">
-        <v>231.8480816797501</v>
+        <v>77.93142510117036</v>
       </c>
       <c r="Q38" t="n">
         <v>9.863914720509683</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>107.9334844354145</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>47.9101208101213</v>
       </c>
       <c r="L39" t="n">
-        <v>111.2115155166111</v>
+        <v>228.5559868131616</v>
       </c>
       <c r="M39" t="n">
         <v>149.3309851927771</v>
@@ -37634,13 +37634,13 @@
         <v>167.8375188061986</v>
       </c>
       <c r="O39" t="n">
-        <v>131.094302412407</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="P39" t="n">
         <v>85.68638542312809</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.0204148625546</v>
+        <v>6.855648734075572</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>89.77511471004996</v>
+        <v>89.77511471004992</v>
       </c>
       <c r="L40" t="n">
         <v>170.9685460184261</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>170.5243940428842</v>
+        <v>1.427778870810386</v>
       </c>
       <c r="K41" t="n">
         <v>53.39089894514376</v>
       </c>
       <c r="L41" t="n">
-        <v>103.5106382148957</v>
+        <v>187.9797239506237</v>
       </c>
       <c r="M41" t="n">
         <v>147.1648601304578</v>
@@ -37795,10 +37795,10 @@
         <v>132.1429152345522</v>
       </c>
       <c r="P41" t="n">
-        <v>77.93142510117036</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.15304186274365</v>
+        <v>9.863914720509683</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>145.3718052108758</v>
+        <v>231.8480816797501</v>
       </c>
       <c r="L42" t="n">
-        <v>231.8480816797501</v>
+        <v>111.2115155166111</v>
       </c>
       <c r="M42" t="n">
         <v>149.3309851927771</v>
@@ -37877,7 +37877,7 @@
         <v>85.68638542312809</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.855648734075572</v>
+        <v>41.01593842834033</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>170.9685460184261</v>
       </c>
       <c r="M43" t="n">
-        <v>190.7564239492497</v>
+        <v>190.7564239492498</v>
       </c>
       <c r="N43" t="n">
         <v>191.7101740865336</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>21.71527062122451</v>
+        <v>1.427778870810386</v>
       </c>
       <c r="K44" t="n">
         <v>53.39089894514376</v>
@@ -38032,7 +38032,7 @@
         <v>132.1429152345522</v>
       </c>
       <c r="P44" t="n">
-        <v>77.93142510117036</v>
+        <v>98.21891685158454</v>
       </c>
       <c r="Q44" t="n">
         <v>9.863914720509683</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>14.52634029320446</v>
+        <v>89.77511471004992</v>
       </c>
       <c r="L46" t="n">
-        <v>170.9685460184261</v>
+        <v>8.493844476871686</v>
       </c>
       <c r="M46" t="n">
         <v>176.7671459506035</v>
@@ -38187,10 +38187,10 @@
         <v>176.7671459506035</v>
       </c>
       <c r="O46" t="n">
-        <v>160.8972986824813</v>
+        <v>134.2060557947185</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>113.9171700124717</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
